--- a/hourly datasets/PlantID_year0final.xlsx
+++ b/hourly datasets/PlantID_year0final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B693"/>
+  <dimension ref="A1:C657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,509 +444,703 @@
           <t>Coef.</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>8906</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3108426509896708</v>
+        <v>0.3108480293770239</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2721202189410548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8227</v>
+        <v>8226</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2156295600722592</v>
+        <v>0.3578881947425671</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1237799679471007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8226</v>
+        <v>8224</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3578866148435962</v>
+        <v>0.446380066297736</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2161929286096217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8224</v>
+        <v>8223</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4463868790846625</v>
+        <v>0.3618842382211822</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.3649449854405633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8223</v>
+        <v>8222</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3618842382211822</v>
+        <v>0.300424422937856</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1268306192968853</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8222</v>
+        <v>8219</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3004272140263176</v>
+        <v>0.3608781195716479</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2756401749202636</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8219</v>
+        <v>8102</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3608932570034117</v>
+        <v>0.4621538007972406</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.245311960656354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8102</v>
+        <v>8069</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4621598258626707</v>
+        <v>0.3800630563001653</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3771183953251404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8069</v>
+        <v>8066</v>
       </c>
       <c r="B10" t="n">
-        <v>0.3800630563001653</v>
+        <v>0.3295507574256545</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3229953934345077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8066</v>
+        <v>8063</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3295507574256545</v>
+        <v>0.3716994359163154</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1734685616519814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8063</v>
+        <v>8059</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3716145240192904</v>
+        <v>0.2451352551724708</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1646607932833634</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8059</v>
+        <v>8056</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2227898720570358</v>
+        <v>0.3419629988206008</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.2600638456773041</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8056</v>
+        <v>8054</v>
       </c>
       <c r="B14" t="n">
-        <v>0.3419834335281556</v>
+        <v>0.3968601617689444</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1148119129272885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8054</v>
+        <v>8049</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3968628908368147</v>
+        <v>0.2792995152955702</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2460275977675982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8049</v>
+        <v>8048</v>
       </c>
       <c r="B16" t="n">
-        <v>0.2793144508727505</v>
+        <v>0.3387159224657659</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.2862097210761623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8048</v>
+        <v>8042</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3387211029817934</v>
+        <v>0.4979320908202695</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2485484888441226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8042</v>
+        <v>8023</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4979320456386689</v>
+        <v>0.3229924789888803</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2293426261908509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8023</v>
+        <v>8012</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3229917624413548</v>
+        <v>0.2889414466201399</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2635588580597906</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8012</v>
+        <v>8008</v>
       </c>
       <c r="B20" t="n">
-        <v>0.2885332719273708</v>
+        <v>0.2322055555555554</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1954521064462335</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8008</v>
+        <v>8007</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2322055555555554</v>
+        <v>0.2583518609750339</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2567001545351903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8007</v>
+        <v>8006</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2585932599884488</v>
+        <v>0.2902981538885496</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2092961025272513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8006</v>
+        <v>8002</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2902659831480468</v>
+        <v>0.2856714075822838</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1020011612608638</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8002</v>
+        <v>7902</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2856732325004023</v>
+        <v>0.3278146060087581</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.165596442095979</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>7902</v>
+        <v>7858</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3278147959091871</v>
+        <v>0.2939821329757739</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2581344353448208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>7858</v>
+        <v>7838</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2939288303810364</v>
+        <v>0.4423124183441572</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1839917110768205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>7838</v>
+        <v>7829</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4423124183441572</v>
+        <v>0.3034823221800048</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2917153380719963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>7829</v>
+        <v>7813</v>
       </c>
       <c r="B28" t="n">
-        <v>0.3034823221800047</v>
+        <v>0.3105605090394415</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2309079159154785</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7813</v>
+        <v>7790</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3105605090394415</v>
+        <v>0.3172120152933143</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.108559248429671</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>7790</v>
+        <v>7783</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3172538822088299</v>
+        <v>0.2785798502428027</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3095645061389989</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>7783</v>
+        <v>7765</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2785798502428027</v>
+        <v>0.3086931280846893</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1972143619716705</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>7782</v>
+        <v>7760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2829528611767703</v>
+        <v>0.3388160726505772</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2279783934473166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>7765</v>
+        <v>7759</v>
       </c>
       <c r="B33" t="n">
-        <v>0.3086931280846893</v>
+        <v>0.4008504024949836</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1647756242280778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>7760</v>
+        <v>7754</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3388160726505772</v>
+        <v>0.3155084518312745</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.137299665654161</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7759</v>
+        <v>7749</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4008530314113488</v>
+        <v>0.3082871605298894</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.316112850173381</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>7754</v>
+        <v>7693</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3155084518312745</v>
+        <v>0.3781461919026987</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3860039629743274</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>7749</v>
+        <v>7605</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3082870754300225</v>
+        <v>0.4934616124374067</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.115768712445664</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>7693</v>
+        <v>7604</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3781461919026987</v>
+        <v>0.4906808963605851</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1353730858922649</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7605</v>
+        <v>7515</v>
       </c>
       <c r="B39" t="n">
-        <v>0.4934585405079563</v>
+        <v>0.4457923795984352</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3857714734016992</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7604</v>
+        <v>7504</v>
       </c>
       <c r="B40" t="n">
-        <v>0.4906808963605851</v>
+        <v>0.3105123480852951</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.1393673577109694</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7515</v>
+        <v>7456</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3018367049275297</v>
+        <v>0.3418845043291208</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1761330490984553</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7504</v>
+        <v>7449</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3105060076345316</v>
+        <v>0.3942161070437099</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3928150850755884</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7456</v>
+        <v>7425</v>
       </c>
       <c r="B43" t="n">
-        <v>0.342198459384824</v>
+        <v>0.3138002352792443</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.07429349577252062</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7449</v>
+        <v>7348</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3942161070437099</v>
+        <v>0.2979022008595539</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2950114390048081</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7425</v>
+        <v>7345</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3138002352792443</v>
+        <v>0.3176483478068831</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.03150532009806065</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7348</v>
+        <v>7343</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2979022008595539</v>
+        <v>0.3673775313460224</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.2181838022024273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7343</v>
+        <v>7336</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3673775313460224</v>
+        <v>0.2832269905905984</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.1844570418791857</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7336</v>
+        <v>7335</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2850712411433163</v>
+        <v>0.2756899696024924</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.2260914247783609</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7335</v>
+        <v>7325</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2767624059309324</v>
+        <v>0.2769771472537891</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2821676332783727</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7325</v>
+        <v>7318</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2769771472537891</v>
+        <v>0.3728429314487905</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2608784688736599</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>7318</v>
+        <v>7315</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3725459393510866</v>
+        <v>0.4070585826730472</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.388141813028497</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>7315</v>
+        <v>7296</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4070585826730472</v>
+        <v>0.1798457696634065</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.03744043151468999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>7296</v>
+        <v>7288</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1798457696634065</v>
+        <v>0.2672949277279315</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2400447917574886</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>7288</v>
+        <v>7277</v>
       </c>
       <c r="B54" t="n">
-        <v>0.2672949277279315</v>
+        <v>0.2851182807600803</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.284576532912579</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>7277</v>
+        <v>7270</v>
       </c>
       <c r="B55" t="n">
-        <v>0.285133817254385</v>
+        <v>0.2716159545126995</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.195936364710005</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7270</v>
+        <v>7266</v>
       </c>
       <c r="B56" t="n">
-        <v>0.271604271280396</v>
+        <v>0.3801236452818527</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.1672352885191544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7266</v>
+        <v>7258</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3801172197976674</v>
+        <v>0.3393636421648575</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2043113608282816</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7258</v>
+        <v>7254</v>
       </c>
       <c r="B58" t="n">
-        <v>0.3393357839166221</v>
+        <v>0.3365119039538468</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2715903509166113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7254</v>
+        <v>7242</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3365085254642685</v>
+        <v>0.5067680493405536</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2042785646272793</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7242</v>
+        <v>7237</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4465156038582411</v>
+        <v>0.2942720084782319</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.1624150025053147</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7237</v>
+        <v>7213</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2942720084782319</v>
+        <v>0.3429662107673682</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1886486857932607</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7213</v>
+        <v>7210</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3429661872193792</v>
+        <v>0.3380943312582264</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.217253158302252</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7210</v>
+        <v>7203</v>
       </c>
       <c r="B63" t="n">
-        <v>0.3380725022197217</v>
+        <v>0.2619674660394862</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1663264506698958</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7203</v>
+        <v>7185</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2619674660394862</v>
+        <v>0.614450436860249</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4467948027195311</v>
       </c>
     </row>
     <row r="65">
@@ -956,13 +1150,19 @@
       <c r="B65" t="n">
         <v>0.256449215517724</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.188008246211881</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>7158</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2497562329444822</v>
+        <v>0.2497435627706064</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.128240060768103</v>
       </c>
     </row>
     <row r="67">
@@ -972,13 +1172,19 @@
       <c r="B67" t="n">
         <v>0.2835185589289592</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.2218501637640266</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>7146</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2738360973323336</v>
+        <v>0.273837188961694</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2721919959042509</v>
       </c>
     </row>
     <row r="69">
@@ -988,6 +1194,9 @@
       <c r="B69" t="n">
         <v>0.2843922644055096</v>
       </c>
+      <c r="C69" t="n">
+        <v>0.1422656356786293</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -996,6 +1205,9 @@
       <c r="B70" t="n">
         <v>0.2331990696217137</v>
       </c>
+      <c r="C70" t="n">
+        <v>0.2331992869762513</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1004,6 +1216,9 @@
       <c r="B71" t="n">
         <v>0.3418167626685876</v>
       </c>
+      <c r="C71" t="n">
+        <v>0.2086397005032653</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1012,13 +1227,19 @@
       <c r="B72" t="n">
         <v>0.2832410678488504</v>
       </c>
+      <c r="C72" t="n">
+        <v>0.285459184344635</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>7063</v>
       </c>
       <c r="B73" t="n">
-        <v>0.6841582487547326</v>
+        <v>0.6841589522333896</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6432718489974553</v>
       </c>
     </row>
     <row r="74">
@@ -1028,13 +1249,19 @@
       <c r="B74" t="n">
         <v>0.3467348317921749</v>
       </c>
+      <c r="C74" t="n">
+        <v>0.3483522810886924</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>7013</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3640797052607203</v>
+        <v>0.3641100249144634</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.2137298194270029</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1269,10 @@
         <v>6823</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2950764141386567</v>
+        <v>0.2950905925777674</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1042600153173059</v>
       </c>
     </row>
     <row r="77">
@@ -1052,13 +1282,19 @@
       <c r="B77" t="n">
         <v>0.2177160867622715</v>
       </c>
+      <c r="C77" t="n">
+        <v>0.3049436887400734</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>6772</v>
       </c>
       <c r="B78" t="n">
-        <v>0.3382445442102923</v>
+        <v>0.3382720657727935</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1905611895332564</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1302,10 @@
         <v>6768</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3207065572814439</v>
+        <v>0.3207084455581132</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.169030259235128</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1313,10 @@
         <v>6761</v>
       </c>
       <c r="B80" t="n">
-        <v>0.3144187280302894</v>
+        <v>0.3144146732401096</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.2167134428967347</v>
       </c>
     </row>
     <row r="81">
@@ -1084,13 +1326,19 @@
       <c r="B81" t="n">
         <v>0.3608405162873419</v>
       </c>
+      <c r="C81" t="n">
+        <v>0.3152229732734215</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>6664</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3442797604266724</v>
+        <v>0.3442792099124924</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.2032853319366852</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1346,10 @@
         <v>6648</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3216342588199562</v>
+        <v>0.3216334766224307</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1620955904175252</v>
       </c>
     </row>
     <row r="84">
@@ -1108,13 +1359,19 @@
       <c r="B84" t="n">
         <v>0.3209931656414604</v>
       </c>
+      <c r="C84" t="n">
+        <v>0.2572565082313013</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>6639</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3587649905702012</v>
+        <v>0.3587454351451571</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1847004902130761</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1379,10 @@
         <v>6558</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3185994378155392</v>
+        <v>0.3185990581880902</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1967931251401375</v>
       </c>
     </row>
     <row r="87">
@@ -1132,6 +1392,9 @@
       <c r="B87" t="n">
         <v>0.3287298952499109</v>
       </c>
+      <c r="C87" t="n">
+        <v>0.3222280530220863</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1140,6 +1403,9 @@
       <c r="B88" t="n">
         <v>0.3185270717849287</v>
       </c>
+      <c r="C88" t="n">
+        <v>0.3197762898255512</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1148,13 +1414,19 @@
       <c r="B89" t="n">
         <v>0.289289742859578</v>
       </c>
+      <c r="C89" t="n">
+        <v>0.1198370710658124</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>6264</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3831552865523398</v>
+        <v>0.3831559645092736</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1504196325983633</v>
       </c>
     </row>
     <row r="91">
@@ -1164,13 +1436,19 @@
       <c r="B91" t="n">
         <v>0.3447561596475524</v>
       </c>
+      <c r="C91" t="n">
+        <v>0.3466629725045011</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>6254</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3712410746316101</v>
+        <v>0.3712170321214188</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1818143102343537</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1456,10 @@
         <v>6253</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2815037967882419</v>
+        <v>1.003720691476852</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1418064493828146</v>
       </c>
     </row>
     <row r="94">
@@ -1188,13 +1469,19 @@
       <c r="B94" t="n">
         <v>0.3528081456304158</v>
       </c>
+      <c r="C94" t="n">
+        <v>0.3440095851007592</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>6248</v>
       </c>
       <c r="B95" t="n">
-        <v>0.346331854191296</v>
+        <v>0.3463287864251322</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1269765311856485</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1489,10 @@
         <v>6243</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3356711145596666</v>
+        <v>0.3356735069083296</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1827028640361148</v>
       </c>
     </row>
     <row r="97">
@@ -1212,6 +1502,9 @@
       <c r="B97" t="n">
         <v>0.3013591240253318</v>
       </c>
+      <c r="C97" t="n">
+        <v>0.2028148262716519</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -1220,13 +1513,19 @@
       <c r="B98" t="n">
         <v>0.3239513812600232</v>
       </c>
+      <c r="C98" t="n">
+        <v>0.3241111112119336</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>6195</v>
       </c>
       <c r="B99" t="n">
-        <v>0.3294272292108117</v>
+        <v>0.3358576281445289</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.3156661930118321</v>
       </c>
     </row>
     <row r="100">
@@ -1236,6 +1535,9 @@
       <c r="B100" t="n">
         <v>0.3583605785013454</v>
       </c>
+      <c r="C100" t="n">
+        <v>0.3382012085166358</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -1244,13 +1546,19 @@
       <c r="B101" t="n">
         <v>0.3240339231404197</v>
       </c>
+      <c r="C101" t="n">
+        <v>0.3259911541823902</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>6183</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3232550046866342</v>
+        <v>0.3232663338372543</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1783713602130544</v>
       </c>
     </row>
     <row r="103">
@@ -1260,6 +1568,9 @@
       <c r="B103" t="n">
         <v>0.3679094475708042</v>
       </c>
+      <c r="C103" t="n">
+        <v>0.2235516728737766</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -1268,13 +1579,19 @@
       <c r="B104" t="n">
         <v>0.360587205909757</v>
       </c>
+      <c r="C104" t="n">
+        <v>0.3475211062277348</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>6178</v>
       </c>
       <c r="B105" t="n">
-        <v>0.3696422518072513</v>
+        <v>0.3696591561586254</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.209563643757618</v>
       </c>
     </row>
     <row r="106">
@@ -1284,6 +1601,9 @@
       <c r="B106" t="n">
         <v>0.3623021096315979</v>
       </c>
+      <c r="C106" t="n">
+        <v>0.3474525867225192</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -1292,13 +1612,19 @@
       <c r="B107" t="n">
         <v>0.3155996647660964</v>
       </c>
+      <c r="C107" t="n">
+        <v>0.3048007341714909</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>6166</v>
       </c>
       <c r="B108" t="n">
-        <v>0.3582955798797113</v>
+        <v>0.3582965423221634</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.1801141497618599</v>
       </c>
     </row>
     <row r="109">
@@ -1308,13 +1634,19 @@
       <c r="B109" t="n">
         <v>0.3832489302507546</v>
       </c>
+      <c r="C109" t="n">
+        <v>0.3543889420915413</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>6156</v>
       </c>
       <c r="B110" t="n">
-        <v>0.3580062272648883</v>
+        <v>0.3580173878948287</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.1802197899695163</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1654,10 @@
         <v>6155</v>
       </c>
       <c r="B111" t="n">
-        <v>0.3628028812481069</v>
+        <v>0.362803336358928</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.2534350450448916</v>
       </c>
     </row>
     <row r="112">
@@ -1332,6 +1667,9 @@
       <c r="B112" t="n">
         <v>0.3187022162002827</v>
       </c>
+      <c r="C112" t="n">
+        <v>0.2926423868402611</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -1340,6 +1678,9 @@
       <c r="B113" t="n">
         <v>0.3269961862569578</v>
       </c>
+      <c r="C113" t="n">
+        <v>0.3276861641451903</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -1348,13 +1689,19 @@
       <c r="B114" t="n">
         <v>0.3031632676841418</v>
       </c>
+      <c r="C114" t="n">
+        <v>0.3007649403252071</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>6138</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3494711745671441</v>
+        <v>0.349457770938885</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1660853582229652</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1709,10 @@
         <v>6137</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4192641638268727</v>
+        <v>0.4192662700992107</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4264287395929656</v>
       </c>
     </row>
     <row r="117">
@@ -1372,13 +1722,19 @@
       <c r="B117" t="n">
         <v>0.3532454086348916</v>
       </c>
+      <c r="C117" t="n">
+        <v>0.09873146664244489</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>6124</v>
       </c>
       <c r="B118" t="n">
-        <v>0.3556164714355794</v>
+        <v>0.3556206130307298</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.3220187100132073</v>
       </c>
     </row>
     <row r="119">
@@ -1388,13 +1744,19 @@
       <c r="B119" t="n">
         <v>0.3092438160332138</v>
       </c>
+      <c r="C119" t="n">
+        <v>0.1825673044937127</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>6106</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3206776840169561</v>
+        <v>0.3206830017173796</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.1548467096402781</v>
       </c>
     </row>
     <row r="121">
@@ -1404,13 +1766,19 @@
       <c r="B121" t="n">
         <v>0.3022478917653286</v>
       </c>
+      <c r="C121" t="n">
+        <v>0.2977101342098925</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>6098</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3157875490168673</v>
+        <v>0.3157860781776188</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1149205870095736</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1786,10 @@
         <v>6096</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3786363952368425</v>
+        <v>0.3786465767289029</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3549486141031775</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1797,10 @@
         <v>6095</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3734750032565686</v>
+        <v>0.3734822653306843</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.3767334637488148</v>
       </c>
     </row>
     <row r="125">
@@ -1436,6 +1810,9 @@
       <c r="B125" t="n">
         <v>0.3941580820870731</v>
       </c>
+      <c r="C125" t="n">
+        <v>0.3749694678291126</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -1444,13 +1821,19 @@
       <c r="B126" t="n">
         <v>0.3292583972671479</v>
       </c>
+      <c r="C126" t="n">
+        <v>0.3280682024384227</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>6089</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3860907059036947</v>
+        <v>0.3858824542851739</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.1978616759481052</v>
       </c>
     </row>
     <row r="128">
@@ -1460,13 +1843,19 @@
       <c r="B128" t="n">
         <v>0.3572482306665482</v>
       </c>
+      <c r="C128" t="n">
+        <v>0.2947354821565215</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>6082</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3686821554498309</v>
+        <v>0.368682497201641</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1064640766173674</v>
       </c>
     </row>
     <row r="130">
@@ -1476,13 +1865,19 @@
       <c r="B130" t="n">
         <v>0.320251558120235</v>
       </c>
+      <c r="C130" t="n">
+        <v>0.3185542071773981</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>6076</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3349409509918105</v>
+        <v>0.3349420133968841</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.2690527649448184</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1885,10 @@
         <v>6073</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3392992221390647</v>
+        <v>0.33930528672921</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2208414150950713</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1896,10 @@
         <v>6071</v>
       </c>
       <c r="B133" t="n">
-        <v>0.347621786200402</v>
+        <v>0.3476268415105634</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2053051125479805</v>
       </c>
     </row>
     <row r="134">
@@ -1508,13 +1909,19 @@
       <c r="B134" t="n">
         <v>0.3436712034549208</v>
       </c>
+      <c r="C134" t="n">
+        <v>0.3210983486069291</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
         <v>6065</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3515617185745692</v>
+        <v>0.3515630126841269</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1463048684415555</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1929,10 @@
         <v>6064</v>
       </c>
       <c r="B136" t="n">
-        <v>0.3168171816666867</v>
+        <v>0.3168171623809096</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1473639574177927</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1940,10 @@
         <v>6061</v>
       </c>
       <c r="B137" t="n">
-        <v>0.3669896402728449</v>
+        <v>0.366989786043044</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.2558936858588459</v>
       </c>
     </row>
     <row r="138">
@@ -1540,13 +1953,19 @@
       <c r="B138" t="n">
         <v>0.3039539422933574</v>
       </c>
+      <c r="C138" t="n">
+        <v>0.306816821813894</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
         <v>6052</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3967972609101097</v>
+        <v>0.3967984888056354</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.3034965582280872</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1973,10 @@
         <v>6046</v>
       </c>
       <c r="B140" t="n">
-        <v>0.283486207572281</v>
+        <v>0.4040669195118596</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.2458251418972093</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1984,10 @@
         <v>6042</v>
       </c>
       <c r="B141" t="n">
-        <v>0.3580348880737441</v>
+        <v>0.3580326701547516</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.2188431453737901</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1995,10 @@
         <v>6041</v>
       </c>
       <c r="B142" t="n">
-        <v>0.3553931957426401</v>
+        <v>0.355394878841695</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2206348138320897</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +2006,10 @@
         <v>6035</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3526049031280427</v>
+        <v>0.3526504943909008</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2076589349483643</v>
       </c>
     </row>
     <row r="144">
@@ -1588,13 +2019,19 @@
       <c r="B144" t="n">
         <v>0.3257932919591677</v>
       </c>
+      <c r="C144" t="n">
+        <v>0.1967016293793555</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
         <v>6031</v>
       </c>
       <c r="B145" t="n">
-        <v>0.3912042667478148</v>
+        <v>0.3912094314588232</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1281519484203419</v>
       </c>
     </row>
     <row r="146">
@@ -1604,13 +2041,19 @@
       <c r="B146" t="n">
         <v>0.3288158982501562</v>
       </c>
+      <c r="C146" t="n">
+        <v>0.328656365602313</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
         <v>6025</v>
       </c>
       <c r="B147" t="n">
-        <v>0.27243269206119</v>
+        <v>0.2717197043741173</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.2412441362906877</v>
       </c>
     </row>
     <row r="148">
@@ -1620,13 +2063,19 @@
       <c r="B148" t="n">
         <v>0.3699595769951986</v>
       </c>
+      <c r="C148" t="n">
+        <v>0.3534045175243155</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>6019</v>
       </c>
       <c r="B149" t="n">
-        <v>0.4263303425051211</v>
+        <v>0.4263592352153457</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.2007888484519044</v>
       </c>
     </row>
     <row r="150">
@@ -1636,13 +2085,19 @@
       <c r="B150" t="n">
         <v>0.370777964512103</v>
       </c>
+      <c r="C150" t="n">
+        <v>0.1585389808055979</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>6017</v>
       </c>
       <c r="B151" t="n">
-        <v>0.3353583740444381</v>
+        <v>0.3353573243536783</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.2437181361585884</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +2105,10 @@
         <v>6016</v>
       </c>
       <c r="B152" t="n">
-        <v>0.3676130456644586</v>
+        <v>0.3676381047956063</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.197473038300949</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +2116,10 @@
         <v>6013</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3294759779477726</v>
+        <v>0.3294503155193463</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.2766133886831456</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +2127,10 @@
         <v>6009</v>
       </c>
       <c r="B154" t="n">
-        <v>0.3140992563941483</v>
+        <v>0.3140991529999391</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1075069328118047</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +2138,10 @@
         <v>6004</v>
       </c>
       <c r="B155" t="n">
-        <v>0.3823225394241364</v>
+        <v>0.3823373906904596</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1775305196824958</v>
       </c>
     </row>
     <row r="156">
@@ -1684,6 +2151,9 @@
       <c r="B156" t="n">
         <v>0.3398179177563554</v>
       </c>
+      <c r="C156" t="n">
+        <v>0.3354942062138559</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -1692,6 +2162,9 @@
       <c r="B157" t="n">
         <v>0.3200274801848784</v>
       </c>
+      <c r="C157" t="n">
+        <v>0.2095597267510069</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -1700,13 +2173,19 @@
       <c r="B158" t="n">
         <v>0.3680807963772036</v>
       </c>
+      <c r="C158" t="n">
+        <v>0.3448488990426525</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
         <v>4940</v>
       </c>
       <c r="B159" t="n">
-        <v>0.3613276708176788</v>
+        <v>0.3613451688041101</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.2822670260578336</v>
       </c>
     </row>
     <row r="160">
@@ -1716,6 +2195,9 @@
       <c r="B160" t="n">
         <v>0.3458507941414152</v>
       </c>
+      <c r="C160" t="n">
+        <v>0.3446983505702745</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -1724,13 +2206,19 @@
       <c r="B161" t="n">
         <v>0.3582602925624331</v>
       </c>
+      <c r="C161" t="n">
+        <v>0.3532576447234802</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
         <v>4937</v>
       </c>
       <c r="B162" t="n">
-        <v>0.3757681598664205</v>
+        <v>0.3757709966257199</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.1709780431392744</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +2226,10 @@
         <v>4271</v>
       </c>
       <c r="B163" t="n">
-        <v>0.3241240876436894</v>
+        <v>0.3241199005803629</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.1555549294038046</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +2237,10 @@
         <v>4266</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3067911213189265</v>
+        <v>0.3068082681458635</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.2459302871983424</v>
       </c>
     </row>
     <row r="165">
@@ -1754,103 +2248,142 @@
         <v>4259</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2817808967212817</v>
+        <v>0.2817799850527043</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.09178929079107841</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>4233</v>
+        <v>4195</v>
       </c>
       <c r="B166" t="n">
-        <v>0.2373565217391304</v>
+        <v>0.3564135343653785</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.2529987091446587</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>4195</v>
+        <v>4162</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3563757169542433</v>
+        <v>0.3489902549119226</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.3406988094348727</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>4162</v>
+        <v>4158</v>
       </c>
       <c r="B168" t="n">
-        <v>0.3489918317518595</v>
+        <v>0.3310127898659228</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.2041772284515604</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>4158</v>
+        <v>4146</v>
       </c>
       <c r="B169" t="n">
-        <v>0.3309613090115816</v>
+        <v>0.3433409505915311</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1634753486105783</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>4146</v>
+        <v>4140</v>
       </c>
       <c r="B170" t="n">
-        <v>0.3429137404542041</v>
+        <v>0.3237415386451996</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.1338069406716705</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>4140</v>
+        <v>4078</v>
       </c>
       <c r="B171" t="n">
-        <v>0.3237384075907364</v>
+        <v>0.30583542816399</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.2916715677659985</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="B172" t="n">
-        <v>0.30583542816399</v>
+        <v>0.2690818894524746</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.0273259121388434</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>4076</v>
+        <v>4072</v>
       </c>
       <c r="B173" t="n">
-        <v>0.2691612550439058</v>
+        <v>0.2900754039547505</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.286220320013886</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>4072</v>
+        <v>4057</v>
       </c>
       <c r="B174" t="n">
-        <v>0.2900754039547505</v>
+        <v>0.3263985191608212</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.24947496981049</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>4057</v>
+        <v>4054</v>
       </c>
       <c r="B175" t="n">
-        <v>0.3246446824863619</v>
+        <v>0.3682419014541615</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.2885024358732247</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>4054</v>
+        <v>4050</v>
       </c>
       <c r="B176" t="n">
-        <v>0.3682419014541615</v>
+        <v>0.3314420815688431</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.2718877527387121</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>4050</v>
+        <v>4042</v>
       </c>
       <c r="B177" t="n">
-        <v>0.3314420815688431</v>
+        <v>0.7545368879290519</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.7448105657280162</v>
       </c>
     </row>
     <row r="178">
@@ -1860,13 +2393,19 @@
       <c r="B178" t="n">
         <v>0.3391981660188666</v>
       </c>
+      <c r="C178" t="n">
+        <v>0.3435581983971904</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
         <v>4040</v>
       </c>
       <c r="B179" t="n">
-        <v>0.2629903358132106</v>
+        <v>0.2629904452339101</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.2022063446801377</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +2413,10 @@
         <v>3992</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2711964912802165</v>
+        <v>0.2711873771704718</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.2102400777222092</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +2424,10 @@
         <v>3982</v>
       </c>
       <c r="B181" t="n">
-        <v>0.2712811672051338</v>
+        <v>0.2712811672051342</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.1805316960658256</v>
       </c>
     </row>
     <row r="182">
@@ -1892,13 +2437,19 @@
       <c r="B182" t="n">
         <v>0.3365582672349173</v>
       </c>
+      <c r="C182" t="n">
+        <v>0.3398358809983684</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
         <v>3948</v>
       </c>
       <c r="B183" t="n">
-        <v>0.3873399467474516</v>
+        <v>0.3873408364005723</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.2270308387632511</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +2457,10 @@
         <v>3947</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3906709664310243</v>
+        <v>0.3906723830983614</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.3889785000570583</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +2468,10 @@
         <v>3946</v>
       </c>
       <c r="B185" t="n">
-        <v>0.3328178069348823</v>
+        <v>0.3328153250159283</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1903473303551049</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +2479,10 @@
         <v>3945</v>
       </c>
       <c r="B186" t="n">
-        <v>0.2939599828121064</v>
+        <v>0.2939482107180729</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.2041377614777682</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +2490,10 @@
         <v>3944</v>
       </c>
       <c r="B187" t="n">
-        <v>0.4008452816805048</v>
+        <v>0.400861682973798</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.3442023191564425</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +2501,10 @@
         <v>3943</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3869913631526531</v>
+        <v>0.3869908520474177</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.2421768022744297</v>
       </c>
     </row>
     <row r="189">
@@ -1948,6 +2514,9 @@
       <c r="B189" t="n">
         <v>0.3096807558369719</v>
       </c>
+      <c r="C189" t="n">
+        <v>0.217572122367839</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -1956,6 +2525,9 @@
       <c r="B190" t="n">
         <v>0.3981353302868483</v>
       </c>
+      <c r="C190" t="n">
+        <v>0.3275667854219707</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -1964,6 +2536,9 @@
       <c r="B191" t="n">
         <v>0.3683593543854824</v>
       </c>
+      <c r="C191" t="n">
+        <v>0.3035491226842275</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -1972,13 +2547,19 @@
       <c r="B192" t="n">
         <v>0.3806289767235349</v>
       </c>
+      <c r="C192" t="n">
+        <v>0.3775639312062282</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
         <v>3845</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3490884333384976</v>
+        <v>0.3490803908683033</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.1795023609787254</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +2567,10 @@
         <v>3809</v>
       </c>
       <c r="B194" t="n">
-        <v>0.3589232850540374</v>
+        <v>0.3589259406294969</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.327111817048565</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +2578,10 @@
         <v>3804</v>
       </c>
       <c r="B195" t="n">
-        <v>0.3545143047816284</v>
+        <v>0.3545121843182338</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.3293560650139256</v>
       </c>
     </row>
     <row r="196">
@@ -2004,13 +2591,19 @@
       <c r="B196" t="n">
         <v>0.3405577267807536</v>
       </c>
+      <c r="C196" t="n">
+        <v>0.3108352054458377</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
         <v>3796</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3560108097606449</v>
+        <v>0.3560093536084209</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.3156173253374885</v>
       </c>
     </row>
     <row r="198">
@@ -2020,13 +2613,19 @@
       <c r="B198" t="n">
         <v>0.3162228056243515</v>
       </c>
+      <c r="C198" t="n">
+        <v>0.2589741803800095</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
         <v>3776</v>
       </c>
       <c r="B199" t="n">
-        <v>0.3124857403345085</v>
+        <v>0.312485766376581</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.2960804370346032</v>
       </c>
     </row>
     <row r="200">
@@ -2036,3949 +2635,5035 @@
       <c r="B200" t="n">
         <v>0.4011681433468997</v>
       </c>
+      <c r="C200" t="n">
+        <v>0.3936299726274265</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3648</v>
+        <v>3482</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3200566609334775</v>
+        <v>0.3983096154936983</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.1372161102045768</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>3644</v>
+        <v>3478</v>
       </c>
       <c r="B202" t="n">
-        <v>0.4209836400012624</v>
+        <v>0.3506666412112314</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.304595662547256</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3628</v>
+        <v>3477</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3316784649613956</v>
+        <v>0.4418393411520026</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.2641505583898668</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3627</v>
+        <v>3476</v>
       </c>
       <c r="B204" t="n">
-        <v>0.2960449495348079</v>
+        <v>0.3441535597288321</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.2890106793265148</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>3613</v>
+        <v>3471</v>
       </c>
       <c r="B205" t="n">
-        <v>0.3314779335471249</v>
+        <v>0.3448564134773441</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.2760973920970188</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>3612</v>
+        <v>3470</v>
       </c>
       <c r="B206" t="n">
-        <v>0.3614268778652411</v>
+        <v>0.3324588803443932</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.3453935708855012</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3611</v>
+        <v>3468</v>
       </c>
       <c r="B207" t="n">
-        <v>0.3341835480757593</v>
+        <v>0.3527582660426714</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.2824141712691173</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3610</v>
+        <v>3466</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3387864037698745</v>
+        <v>0.3630559869086739</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.3159472219385341</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>3609</v>
+        <v>3464</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3096651388705453</v>
+        <v>0.3371183134572664</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.2939949143583363</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>3604</v>
+        <v>3461</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4603240805561096</v>
+        <v>0.3123220491903788</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.2635634234599994</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>3602</v>
+        <v>3460</v>
       </c>
       <c r="B211" t="n">
-        <v>0.3060209930739889</v>
+        <v>0.3637211404222528</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.3060941391126388</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3601</v>
+        <v>3459</v>
       </c>
       <c r="B212" t="n">
-        <v>0.37773497123514</v>
+        <v>0.346479129444539</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.2963552613497412</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>3576</v>
+        <v>3457</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3191952008836589</v>
+        <v>0.3362477010579105</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.278671883677023</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>3574</v>
+        <v>3455</v>
       </c>
       <c r="B214" t="n">
-        <v>0.3269295936719769</v>
+        <v>0.321611145967784</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.2661051971901288</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>3561</v>
+        <v>3454</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3331147612148821</v>
+        <v>0.3515852851696341</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.2386272393725662</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>3559</v>
+        <v>3453</v>
       </c>
       <c r="B216" t="n">
-        <v>0.2619767809698997</v>
+        <v>0.3357014097816042</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.2607815423044786</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>3549</v>
+        <v>3452</v>
       </c>
       <c r="B217" t="n">
-        <v>0.4063745557728975</v>
+        <v>0.3883357325867464</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.2836360696126883</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3527</v>
+        <v>3443</v>
       </c>
       <c r="B218" t="n">
-        <v>0.2895271713777238</v>
+        <v>0.3368349298914301</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.2881037156105568</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>3526</v>
+        <v>3442</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3114057583781391</v>
+        <v>0.3530265557249924</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.2305553088239157</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>3524</v>
+        <v>3441</v>
       </c>
       <c r="B220" t="n">
-        <v>0.3033018598899179</v>
+        <v>0.3648275706821666</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.3030169993484583</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>3523</v>
+        <v>3440</v>
       </c>
       <c r="B221" t="n">
-        <v>0.343839779809201</v>
+        <v>0.3190754398832403</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.308486634303569</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>3508</v>
+        <v>3439</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3457583973310234</v>
+        <v>0.3182581099299378</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3092860748942726</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>3507</v>
+        <v>3438</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3537692728014813</v>
+        <v>0.3267438782821925</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.3275898155347713</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>3506</v>
+        <v>3436</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3677979645843295</v>
+        <v>0.3559563273104419</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.1618252134475048</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3504</v>
+        <v>3407</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3491616634392902</v>
+        <v>0.3436896032455389</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.3140224952840269</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>3503</v>
+        <v>3406</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3095299689585664</v>
+        <v>0.7031300309285463</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.3380490653060608</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3502</v>
+        <v>3405</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3373639373998134</v>
+        <v>0.4059000411514527</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.3881194356144989</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3500</v>
+        <v>3403</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3367182585033578</v>
+        <v>0.3633167163212805</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.3229630963877812</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>3497</v>
+        <v>3399</v>
       </c>
       <c r="B229" t="n">
-        <v>0.308673005158326</v>
+        <v>0.3551537275173409</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1850672711262654</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>3494</v>
+        <v>3396</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3482981079241351</v>
+        <v>0.4461713790266224</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.2838593419304889</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>3493</v>
+        <v>3393</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3048353996802755</v>
+        <v>0.4377017600315266</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.4149788344627701</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3492</v>
+        <v>3344</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3614522730336072</v>
+        <v>0.2280061264215411</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.04038301854997</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>3491</v>
+        <v>3317</v>
       </c>
       <c r="B233" t="n">
-        <v>0.329376006206051</v>
+        <v>0.3695166051786263</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.1826010243736402</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>3490</v>
+        <v>3298</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3676559819820763</v>
+        <v>0.3485689976335156</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.2606675280508634</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>3489</v>
+        <v>3297</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3187770903605667</v>
+        <v>0.4102583148621358</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.320130723311143</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3485</v>
+        <v>3295</v>
       </c>
       <c r="B236" t="n">
-        <v>0.4161277673038647</v>
+        <v>0.3294537388293315</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.3149356150680653</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3484</v>
+        <v>3287</v>
       </c>
       <c r="B237" t="n">
-        <v>0.39711237863151</v>
+        <v>0.379471766216799</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.2437240088841133</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>3483</v>
+        <v>3285</v>
       </c>
       <c r="B238" t="n">
-        <v>0.2847645255726588</v>
+        <v>0.3644935810007912</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1080180508333644</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3482</v>
+        <v>3280</v>
       </c>
       <c r="B239" t="n">
-        <v>0.3983096154936983</v>
+        <v>0.3673314132159567</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.2250138917684335</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3478</v>
+        <v>3264</v>
       </c>
       <c r="B240" t="n">
-        <v>0.3506720137356174</v>
+        <v>0.3624099102374061</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.2738275714431633</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>3477</v>
+        <v>3236</v>
       </c>
       <c r="B241" t="n">
-        <v>0.3641043572995688</v>
+        <v>0.2919518791022095</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.2126330789856754</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3476</v>
+        <v>3181</v>
       </c>
       <c r="B242" t="n">
-        <v>0.3441759972816957</v>
+        <v>0.3362026872340791</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.2021796131892853</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3471</v>
+        <v>3179</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3448454964590806</v>
+        <v>0.367853827059372</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1993674717494029</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3470</v>
+        <v>3178</v>
       </c>
       <c r="B244" t="n">
-        <v>0.3325375445399156</v>
+        <v>0.3718046090765276</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.3660723896918746</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>3468</v>
+        <v>3176</v>
       </c>
       <c r="B245" t="n">
-        <v>0.352629641567803</v>
+        <v>0.3343678022918316</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.301478689916336</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>3466</v>
+        <v>3169</v>
       </c>
       <c r="B246" t="n">
-        <v>0.3630559869086739</v>
+        <v>0.3576477294125884</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.2378123391719974</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>3464</v>
+        <v>3163</v>
       </c>
       <c r="B247" t="n">
-        <v>0.3372472294928859</v>
+        <v>0.2739445261355741</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.2297887563362354</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>3461</v>
+        <v>3162</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3118013497223624</v>
+        <v>0.2652551339801085</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.2374772242312606</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>3460</v>
+        <v>3161</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3637207708868767</v>
+        <v>0.3125820364735087</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.2683961964412023</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3459</v>
+        <v>3160</v>
       </c>
       <c r="B250" t="n">
-        <v>0.346479129444539</v>
+        <v>0.3418275519275832</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.2181254342657685</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3457</v>
+        <v>3159</v>
       </c>
       <c r="B251" t="n">
-        <v>0.3362477010579105</v>
+        <v>0.3264829549819212</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.2341825406503871</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>3455</v>
+        <v>3152</v>
       </c>
       <c r="B252" t="n">
-        <v>0.3215394355002785</v>
+        <v>0.6426613086634365</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.0726378827978349</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>3454</v>
+        <v>3149</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3515852851696341</v>
+        <v>0.3997683124339162</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.4017829521669782</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3453</v>
+        <v>3140</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3357108556377905</v>
+        <v>0.4332753947941158</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.364472554873095</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3452</v>
+        <v>3138</v>
       </c>
       <c r="B255" t="n">
-        <v>0.3883357325867464</v>
+        <v>0.3229438641474369</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.2567044251997757</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>3443</v>
+        <v>3136</v>
       </c>
       <c r="B256" t="n">
-        <v>0.3368308361612817</v>
+        <v>0.4058378262520321</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.3388840190522669</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3442</v>
+        <v>3134</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3529365532894045</v>
+        <v>0.2690375255015068</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.2566035934769108</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>3441</v>
+        <v>3132</v>
       </c>
       <c r="B258" t="n">
-        <v>0.3648256816254366</v>
+        <v>0.2673926112266923</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.2358509058756483</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3440</v>
+        <v>3131</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3190754398832403</v>
+        <v>0.3668912291544739</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.3170958067538461</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3439</v>
+        <v>3130</v>
       </c>
       <c r="B260" t="n">
-        <v>0.3182693393663796</v>
+        <v>0.338590727040242</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.2222265441323731</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3438</v>
+        <v>3122</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3267505001556141</v>
+        <v>0.3598113980841694</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.2177851996467475</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3436</v>
+        <v>3118</v>
       </c>
       <c r="B262" t="n">
-        <v>0.3560116651045244</v>
+        <v>0.3700655787433986</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.2865456973194365</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>3407</v>
+        <v>3116</v>
       </c>
       <c r="B263" t="n">
-        <v>0.3436896032455389</v>
+        <v>0.2413696228181126</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.2089149392281008</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3406</v>
+        <v>3115</v>
       </c>
       <c r="B264" t="n">
-        <v>0.3669245060631249</v>
+        <v>0.3469453105542651</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.3068364754782613</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3405</v>
+        <v>3113</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4059000411514527</v>
+        <v>0.3733744834443619</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.3373253936839293</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>3403</v>
+        <v>3111</v>
       </c>
       <c r="B266" t="n">
-        <v>0.3633167163212805</v>
+        <v>0.2460930946595175</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.227688787343347</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>3399</v>
+        <v>3098</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3551515014719819</v>
+        <v>0.2865915703716522</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.2335828506405165</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3396</v>
+        <v>3008</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4461672840895288</v>
+        <v>0.350090228950342</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.3040480574793274</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3393</v>
+        <v>2965</v>
       </c>
       <c r="B269" t="n">
-        <v>0.4377017600315266</v>
+        <v>0.3247856139939678</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.3059889485339179</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3344</v>
+        <v>2964</v>
       </c>
       <c r="B270" t="n">
-        <v>0.2280281308087656</v>
+        <v>0.3403251979731204</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.278790585498656</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>3317</v>
+        <v>2963</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3695208483300269</v>
+        <v>0.4813483439398941</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.322143650828841</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>3298</v>
+        <v>2956</v>
       </c>
       <c r="B272" t="n">
-        <v>0.3485845595327073</v>
+        <v>0.3566844321637727</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.3813419945702881</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>3297</v>
+        <v>2953</v>
       </c>
       <c r="B273" t="n">
-        <v>0.4102581205701972</v>
+        <v>0.3748282203895564</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.2992047672710313</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>3295</v>
+        <v>2952</v>
       </c>
       <c r="B274" t="n">
-        <v>0.329454895636563</v>
+        <v>0.328653510080027</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.2722183135072838</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>3287</v>
+        <v>2951</v>
       </c>
       <c r="B275" t="n">
-        <v>0.3794720084992522</v>
+        <v>0.3607966117850515</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.3437238113791095</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>3285</v>
+        <v>2917</v>
       </c>
       <c r="B276" t="n">
-        <v>0.3132532870677853</v>
+        <v>0.5447029311394699</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1372604131208097</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>3280</v>
+        <v>2878</v>
       </c>
       <c r="B277" t="n">
-        <v>0.3673338026400993</v>
+        <v>0.3804940080227291</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.3567644958821665</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>3264</v>
+        <v>2876</v>
       </c>
       <c r="B278" t="n">
-        <v>0.3624024189710591</v>
+        <v>0.3945006334594704</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.3756105363680381</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>3236</v>
+        <v>2872</v>
       </c>
       <c r="B279" t="n">
-        <v>0.291941233385164</v>
+        <v>0.3893315408994439</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.3955950178664814</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3181</v>
+        <v>2866</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3362038479618107</v>
+        <v>0.3570488413724929</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.3579709469581381</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>3179</v>
+        <v>2857</v>
       </c>
       <c r="B281" t="n">
-        <v>0.3678517010491254</v>
+        <v>0.8484427414522315</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.1506996589438656</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3178</v>
+        <v>2850</v>
       </c>
       <c r="B282" t="n">
-        <v>0.3718064666565087</v>
+        <v>0.3629602395590658</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.3641771195576671</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3176</v>
+        <v>2848</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3337015633746581</v>
+        <v>0.3237165910846599</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.2618072773987126</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>3169</v>
+        <v>2847</v>
       </c>
       <c r="B284" t="n">
-        <v>0.3576197218615769</v>
+        <v>0.3592820749057528</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.2516069288678775</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3168</v>
+        <v>2843</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2643743636796633</v>
+        <v>0.3501951540613358</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.2560315566023716</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>3163</v>
+        <v>2840</v>
       </c>
       <c r="B286" t="n">
-        <v>0.2739445261355741</v>
+        <v>0.3708956377387911</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.3699767217249114</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>3162</v>
+        <v>2838</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2652551339801085</v>
+        <v>0.4495978006388531</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.2232514457082179</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>3161</v>
+        <v>2837</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3126025948574166</v>
+        <v>0.3742624156256059</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.2900383001327267</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>3160</v>
+        <v>2836</v>
       </c>
       <c r="B289" t="n">
-        <v>0.3414647547395485</v>
+        <v>0.3495518334769613</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.1412519953776855</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>3159</v>
+        <v>2835</v>
       </c>
       <c r="B290" t="n">
-        <v>0.3264821025359654</v>
+        <v>0.2963423822637171</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1960387564116529</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>3152</v>
+        <v>2832</v>
       </c>
       <c r="B291" t="n">
-        <v>0.6426611252417399</v>
+        <v>0.3523258124554615</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.2570278284344565</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>3149</v>
+        <v>2830</v>
       </c>
       <c r="B292" t="n">
-        <v>0.3997683124339162</v>
+        <v>0.3471112402325633</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.3158998349538846</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>3148</v>
+        <v>2828</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3508823987930456</v>
+        <v>0.3946387787129609</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.3893996304300207</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3140</v>
+        <v>2824</v>
       </c>
       <c r="B294" t="n">
-        <v>0.4332753947941158</v>
+        <v>0.7907571539213623</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.3728400105642741</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3138</v>
+        <v>2823</v>
       </c>
       <c r="B295" t="n">
-        <v>0.3229414307036577</v>
+        <v>0.3652795657346959</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.3091757917871225</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>3136</v>
+        <v>2817</v>
       </c>
       <c r="B296" t="n">
-        <v>0.4058373676503308</v>
+        <v>0.3231860047035152</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.1864436855072786</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>3134</v>
+        <v>2790</v>
       </c>
       <c r="B297" t="n">
-        <v>0.2690375255015068</v>
+        <v>0.3048695199051736</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1430019376432446</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>3132</v>
+        <v>2732</v>
       </c>
       <c r="B298" t="n">
-        <v>0.2674195561817406</v>
+        <v>0.3513924568953843</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.301648181836828</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>3131</v>
+        <v>2727</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3668912291544739</v>
+        <v>0.4169405519622289</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.4140456742498403</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>3130</v>
+        <v>2723</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3385965899915395</v>
+        <v>0.30381788480597</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.2784231656781931</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>3122</v>
+        <v>2721</v>
       </c>
       <c r="B301" t="n">
-        <v>0.359814919471023</v>
+        <v>0.4181549302497503</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.1957876578710034</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3120</v>
+        <v>2720</v>
       </c>
       <c r="B302" t="n">
-        <v>0.311602221064099</v>
+        <v>0.3516948474633474</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.2653920529442517</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3118</v>
+        <v>2718</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3700653470922275</v>
+        <v>0.3738457137576906</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.3305592496772086</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>3116</v>
+        <v>2716</v>
       </c>
       <c r="B304" t="n">
-        <v>0.2413696228181126</v>
+        <v>0.3726279017531324</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.2482801754206659</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>3115</v>
+        <v>2713</v>
       </c>
       <c r="B305" t="n">
-        <v>0.3469463658846242</v>
+        <v>0.34563417319913</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.2964106086140543</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3113</v>
+        <v>2712</v>
       </c>
       <c r="B306" t="n">
-        <v>0.3733699005972194</v>
+        <v>0.8647611842644884</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.08803009153745439</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3112</v>
+        <v>2709</v>
       </c>
       <c r="B307" t="n">
-        <v>0.2534497542417961</v>
+        <v>0.3212058603030665</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.2804540271079582</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3111</v>
+        <v>2706</v>
       </c>
       <c r="B308" t="n">
-        <v>0.2460930946595175</v>
+        <v>0.3343090918219153</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.3043752291083838</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3110</v>
+        <v>2642</v>
       </c>
       <c r="B309" t="n">
-        <v>0.2378385873992487</v>
+        <v>0.3411625624754803</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.3418901789455727</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>3098</v>
+        <v>2632</v>
       </c>
       <c r="B310" t="n">
-        <v>0.2865915703716522</v>
+        <v>0.2178270625626731</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.04533475320298781</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3008</v>
+        <v>2629</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3501648214198905</v>
+        <v>0.3117805217754605</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.2317968121757172</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>3006</v>
+        <v>2628</v>
       </c>
       <c r="B312" t="n">
-        <v>0.2064018132434568</v>
+        <v>0.2265458666369922</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.2222649508013402</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2965</v>
+        <v>2625</v>
       </c>
       <c r="B313" t="n">
-        <v>0.3247867176317732</v>
+        <v>0.2962104242329608</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.2273341953538105</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2964</v>
+        <v>2594</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3403347830461175</v>
+        <v>0.3516419996257152</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.247738624191342</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2963</v>
+        <v>2554</v>
       </c>
       <c r="B315" t="n">
-        <v>0.4813483439398941</v>
+        <v>0.381950395619751</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.3612803443383912</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>2956</v>
+        <v>2549</v>
       </c>
       <c r="B316" t="n">
-        <v>0.3566874360838183</v>
+        <v>0.3403129841468643</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.3480435067658662</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2953</v>
+        <v>2539</v>
       </c>
       <c r="B317" t="n">
-        <v>0.3748271017478509</v>
+        <v>0.3151856006970284</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.2414561897614782</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2952</v>
+        <v>2527</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3286536453343604</v>
+        <v>0.2366438697765065</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.06205722895603288</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>2951</v>
+        <v>2526</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3608129450345784</v>
+        <v>0.2113870550679414</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.05567361297389277</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2917</v>
+        <v>2521</v>
       </c>
       <c r="B320" t="n">
-        <v>0.3034496231777762</v>
+        <v>0.2124380061823037</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.2123329513592752</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2878</v>
+        <v>2517</v>
       </c>
       <c r="B321" t="n">
-        <v>0.3804956238861414</v>
+        <v>0.5069901859465011</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.2381491782621898</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2876</v>
+        <v>2516</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3945006334594704</v>
+        <v>0.348209439552661</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.3497267967938922</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2872</v>
+        <v>2514</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3893315408994439</v>
+        <v>0.3387977118499416</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.2926756020380619</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>2866</v>
+        <v>2513</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3570488413724929</v>
+        <v>0.4880487101991675</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.2794728782825143</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2857</v>
+        <v>2512</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3317024951644416</v>
+        <v>0.2305420386162058</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.2297655203305045</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2850</v>
+        <v>2511</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3629602395590658</v>
+        <v>0.3681172162724489</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.3302647180293253</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2848</v>
+        <v>2500</v>
       </c>
       <c r="B327" t="n">
-        <v>0.3236690010854829</v>
+        <v>0.3331519699097792</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.2741786268732037</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2847</v>
+        <v>2499</v>
       </c>
       <c r="B328" t="n">
-        <v>0.2665355591145003</v>
+        <v>0.201429156783207</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.1954369928338638</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2843</v>
+        <v>2494</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3502000320300536</v>
+        <v>0.1797458183158611</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.1766398688275213</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2840</v>
+        <v>2493</v>
       </c>
       <c r="B330" t="n">
-        <v>0.3708956377387911</v>
+        <v>0.6984809383571212</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.4756343377162691</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2838</v>
+        <v>2491</v>
       </c>
       <c r="B331" t="n">
-        <v>0.3097410194167567</v>
+        <v>0.3378729786203288</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.3407911468060901</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>2837</v>
+        <v>2480</v>
       </c>
       <c r="B332" t="n">
-        <v>0.3742624156256059</v>
+        <v>0.3707145433018667</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.2519641995198736</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2836</v>
+        <v>2454</v>
       </c>
       <c r="B333" t="n">
-        <v>0.3495468153355469</v>
+        <v>0.3664529436003915</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.3109471039070172</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2835</v>
+        <v>2451</v>
       </c>
       <c r="B334" t="n">
-        <v>0.2963422261718557</v>
+        <v>0.3433390499509013</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.3280896088107851</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2832</v>
+        <v>2450</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3523258124554615</v>
+        <v>0.3148868652646397</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.2120359191350807</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2830</v>
+        <v>2446</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3471112402325633</v>
+        <v>0.3255916920831187</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.1667945594368285</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2828</v>
+        <v>2444</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3946387787129609</v>
+        <v>0.3343511088098362</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.3159616564632203</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2823</v>
+        <v>2442</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3652795657346959</v>
+        <v>0.3355447406227249</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.311876846024952</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2817</v>
+        <v>2434</v>
       </c>
       <c r="B339" t="n">
-        <v>0.3231863522758424</v>
+        <v>0.3077179616135045</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.2118534747762938</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>2790</v>
+        <v>2411</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3048895190889125</v>
+        <v>0.3779396593498557</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.2515244969394149</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>2732</v>
+        <v>2408</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3513915926620793</v>
+        <v>0.3602917543492002</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.2989792321321337</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2727</v>
+        <v>2406</v>
       </c>
       <c r="B342" t="n">
-        <v>0.4169405519622289</v>
+        <v>0.3092765097770869</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.2667734708622044</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2723</v>
+        <v>2404</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3038185554910344</v>
+        <v>1.135784489044625</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.2571146568055176</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>2721</v>
+        <v>2403</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4181378011621013</v>
+        <v>0.3297922935100827</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1274385371168788</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2720</v>
+        <v>2401</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3516917082916496</v>
+        <v>0.2627053575179115</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.3410733215785814</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2718</v>
+        <v>2400</v>
       </c>
       <c r="B346" t="n">
-        <v>0.3738378810070483</v>
+        <v>0.2180278456942272</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.2180239889709994</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2716</v>
+        <v>2390</v>
       </c>
       <c r="B347" t="n">
-        <v>0.3726249164842516</v>
+        <v>0.3217237492857466</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.2618032612681575</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2713</v>
+        <v>2385</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3456323447582367</v>
+        <v>0.2091262535981724</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.2074112871386133</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>2712</v>
+        <v>2384</v>
       </c>
       <c r="B349" t="n">
-        <v>0.2463730014210564</v>
+        <v>0.4056783322037657</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.265922254528124</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2709</v>
+        <v>2383</v>
       </c>
       <c r="B350" t="n">
-        <v>0.3224751087934097</v>
+        <v>0.2653748591992348</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1975669094160526</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2706</v>
+        <v>2382</v>
       </c>
       <c r="B351" t="n">
-        <v>0.3343090918219153</v>
+        <v>0.2870842088325465</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.2293843723712641</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2642</v>
+        <v>2380</v>
       </c>
       <c r="B352" t="n">
-        <v>0.3411625624754803</v>
+        <v>0.2479983464442467</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.240372558458634</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2632</v>
+        <v>2379</v>
       </c>
       <c r="B353" t="n">
-        <v>0.2178270625626731</v>
+        <v>0.2435034351256449</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.1896234863729976</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2629</v>
+        <v>2378</v>
       </c>
       <c r="B354" t="n">
-        <v>0.3118159297019728</v>
+        <v>0.3253880357416966</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.2435391789991125</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2628</v>
+        <v>2367</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2265458666369921</v>
+        <v>0.555017779320245</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.2204889731017866</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2625</v>
+        <v>2364</v>
       </c>
       <c r="B356" t="n">
-        <v>0.2961554204399481</v>
+        <v>0.3376128080794205</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.2254939482677792</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2594</v>
+        <v>2341</v>
       </c>
       <c r="B357" t="n">
-        <v>0.3531886130220995</v>
+        <v>0.4174652705011239</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.2937636392196298</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2554</v>
+        <v>2336</v>
       </c>
       <c r="B358" t="n">
-        <v>0.381950395619751</v>
+        <v>0.3567482704247756</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.3285073370386231</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2549</v>
+        <v>2330</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3403129841468643</v>
+        <v>0.347142397710136</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.24000372141972</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2539</v>
+        <v>2326</v>
       </c>
       <c r="B360" t="n">
-        <v>0.3152388600684345</v>
+        <v>0.3664879979810385</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.18872622314855</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>2527</v>
+        <v>2324</v>
       </c>
       <c r="B361" t="n">
-        <v>0.2366438697765065</v>
+        <v>0.3308559411372083</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.2140330002743567</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>2526</v>
+        <v>2292</v>
       </c>
       <c r="B362" t="n">
-        <v>0.2113870550679414</v>
+        <v>0.326841320708521</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.3061288865885797</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2521</v>
+        <v>2291</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2124380061823037</v>
+        <v>0.3295215211327462</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.3335698876127615</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2517</v>
+        <v>2277</v>
       </c>
       <c r="B364" t="n">
-        <v>0.5069901859465011</v>
+        <v>0.3214791182297697</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.1724979274956639</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2516</v>
+        <v>2241</v>
       </c>
       <c r="B365" t="n">
-        <v>0.348209439552661</v>
+        <v>0.2975721224694314</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.2425982943516922</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2514</v>
+        <v>2240</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3388125041706113</v>
+        <v>0.3152674813950305</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.1823023658092118</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2513</v>
+        <v>2226</v>
       </c>
       <c r="B367" t="n">
-        <v>0.4880089082376958</v>
+        <v>0.4059934669259806</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.1855297741186352</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2512</v>
+        <v>2187</v>
       </c>
       <c r="B368" t="n">
-        <v>0.2305420386162058</v>
+        <v>0.3281957172679465</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.1276015880790212</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2511</v>
+        <v>2169</v>
       </c>
       <c r="B369" t="n">
-        <v>0.36811569275494</v>
+        <v>0.3125573905678255</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.1893755839060631</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2504</v>
+        <v>2168</v>
       </c>
       <c r="B370" t="n">
-        <v>0.0460977051342462</v>
+        <v>0.3297804315347821</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.1680154896099021</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2503</v>
+        <v>2167</v>
       </c>
       <c r="B371" t="n">
-        <v>1.457359403209124e-05</v>
+        <v>0.3378559856605562</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.2045560571177778</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>2500</v>
+        <v>2161</v>
       </c>
       <c r="B372" t="n">
-        <v>0.3331519699097792</v>
+        <v>0.393167793875025</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.3297467952015833</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>2499</v>
+        <v>2132</v>
       </c>
       <c r="B373" t="n">
-        <v>0.201429156783207</v>
+        <v>0.3789456521112549</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.2313429131079254</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2496</v>
+        <v>2123</v>
       </c>
       <c r="B374" t="n">
-        <v>0.0002208994144318605</v>
+        <v>0.7154132395203949</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6957776134087965</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>2494</v>
+        <v>2107</v>
       </c>
       <c r="B375" t="n">
-        <v>0.1797458183158611</v>
+        <v>0.3730935723766229</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.2305139509872301</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>2491</v>
+        <v>2104</v>
       </c>
       <c r="B376" t="n">
-        <v>0.3378725681849847</v>
+        <v>0.3035186490387546</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.2857889909547969</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>2480</v>
+        <v>2103</v>
       </c>
       <c r="B377" t="n">
-        <v>0.3707184292924013</v>
+        <v>0.3470057905061719</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.3473815857395837</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>2454</v>
+        <v>2098</v>
       </c>
       <c r="B378" t="n">
-        <v>0.3664406386473986</v>
+        <v>0.3048329677873653</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.2731415324445985</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>2451</v>
+        <v>2094</v>
       </c>
       <c r="B379" t="n">
-        <v>0.3433390499509013</v>
+        <v>0.3375806298018348</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.2491010623954697</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>2450</v>
+        <v>2080</v>
       </c>
       <c r="B380" t="n">
-        <v>0.3147484671463852</v>
+        <v>0.2860019669927917</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.2761508656483233</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>2446</v>
+        <v>2076</v>
       </c>
       <c r="B381" t="n">
-        <v>0.3255920977186764</v>
+        <v>0.3771273358064574</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.1971699964750232</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>2444</v>
+        <v>2070</v>
       </c>
       <c r="B382" t="n">
-        <v>0.3234394786368056</v>
+        <v>0.2748319607581957</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.2442888619353133</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>2442</v>
+        <v>2053</v>
       </c>
       <c r="B383" t="n">
-        <v>0.3355447406227249</v>
+        <v>0.2467765660773258</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.1954911975447593</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2434</v>
+        <v>2052</v>
       </c>
       <c r="B384" t="n">
-        <v>0.3076707018758431</v>
+        <v>0.5930140320483155</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.04502718267025203</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2411</v>
+        <v>2051</v>
       </c>
       <c r="B385" t="n">
-        <v>0.3194019861220159</v>
+        <v>0.24746925427762</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.1551746034381086</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>2408</v>
+        <v>2050</v>
       </c>
       <c r="B386" t="n">
-        <v>0.360292711291362</v>
+        <v>0.3631615270895802</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.2591530429437735</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>2406</v>
+        <v>2049</v>
       </c>
       <c r="B387" t="n">
-        <v>0.3092866866571272</v>
+        <v>0.3740132103301136</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.2661494981285752</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>2404</v>
+        <v>2048</v>
       </c>
       <c r="B388" t="n">
-        <v>0.3131267137269514</v>
+        <v>0.2811879782933702</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1849588978289443</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>2403</v>
+        <v>2047</v>
       </c>
       <c r="B389" t="n">
-        <v>0.3297916796978916</v>
+        <v>0.2983656055464364</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.07321039585585851</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>2401</v>
+        <v>2008</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2627053575179115</v>
+        <v>0.2919828575199546</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.1244837523764473</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>2400</v>
+        <v>1961</v>
       </c>
       <c r="B391" t="n">
-        <v>0.2180278456942272</v>
+        <v>0.3486652721615348</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.1876136441555609</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>2397</v>
+        <v>1927</v>
       </c>
       <c r="B392" t="n">
-        <v>0.2180605001019839</v>
+        <v>0.3733935556314536</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.2618065841626125</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>2390</v>
+        <v>1918</v>
       </c>
       <c r="B393" t="n">
-        <v>0.3217014709653989</v>
+        <v>0.2806511263571</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.1889275787890356</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>2385</v>
+        <v>1915</v>
       </c>
       <c r="B394" t="n">
-        <v>0.2091262535981724</v>
+        <v>0.379851633803901</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1363580311588503</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>2384</v>
+        <v>1912</v>
       </c>
       <c r="B395" t="n">
-        <v>0.3210284426938664</v>
+        <v>0.3320801218112044</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.2208368774606485</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>2383</v>
+        <v>1904</v>
       </c>
       <c r="B396" t="n">
-        <v>0.2396790889895762</v>
+        <v>0.3120544376003372</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.2539575244971811</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2382</v>
+        <v>1897</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2870842088325465</v>
+        <v>0.269953946831549</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.174774789016639</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>2380</v>
+        <v>1893</v>
       </c>
       <c r="B398" t="n">
-        <v>0.2479983464442467</v>
+        <v>0.3312326563420664</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.3360956238707107</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>2379</v>
+        <v>1891</v>
       </c>
       <c r="B399" t="n">
-        <v>0.2435034351256449</v>
+        <v>0.2851270540681451</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.1966009446217599</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2378</v>
+        <v>1888</v>
       </c>
       <c r="B400" t="n">
-        <v>0.3253814496491018</v>
+        <v>0.2927944781769136</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.2089798407783063</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>2367</v>
+        <v>1866</v>
       </c>
       <c r="B401" t="n">
-        <v>0.5551344562656075</v>
+        <v>0.6062613373674788</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.04004805934017633</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2364</v>
+        <v>1843</v>
       </c>
       <c r="B402" t="n">
-        <v>0.3376189515655688</v>
+        <v>0.3506662973264146</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.2827472651662923</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2341</v>
+        <v>1832</v>
       </c>
       <c r="B403" t="n">
-        <v>0.4173908450720183</v>
+        <v>0.5205488145833883</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.3346183865239064</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>2336</v>
+        <v>1831</v>
       </c>
       <c r="B404" t="n">
-        <v>0.3567482704247756</v>
+        <v>0.2830969439833813</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.288447519248454</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>2330</v>
+        <v>1830</v>
       </c>
       <c r="B405" t="n">
-        <v>0.3471437981033839</v>
+        <v>0.2548824437440126</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.2215732276437279</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>2326</v>
+        <v>1825</v>
       </c>
       <c r="B406" t="n">
-        <v>0.3664942184723646</v>
+        <v>0.462235109606948</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.3850264763021163</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>2324</v>
+        <v>1769</v>
       </c>
       <c r="B407" t="n">
-        <v>0.330857075832343</v>
+        <v>0.3140872903428545</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.310796326401291</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2292</v>
+        <v>1745</v>
       </c>
       <c r="B408" t="n">
-        <v>0.3268498319440766</v>
+        <v>0.7040790167640903</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6753885628298385</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>2291</v>
+        <v>1743</v>
       </c>
       <c r="B409" t="n">
-        <v>0.3295215211327462</v>
+        <v>0.3584568380695285</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.2771040414418315</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2277</v>
+        <v>1740</v>
       </c>
       <c r="B410" t="n">
-        <v>0.3214971981505002</v>
+        <v>0.731571728726139</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.4922674205908927</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>2241</v>
+        <v>1733</v>
       </c>
       <c r="B411" t="n">
-        <v>0.2975123952258948</v>
+        <v>0.3862702726408002</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.2996672312553181</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>2240</v>
+        <v>1732</v>
       </c>
       <c r="B412" t="n">
-        <v>0.315265341165885</v>
+        <v>0.602615879770475</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.1676254054639116</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2226</v>
+        <v>1731</v>
       </c>
       <c r="B413" t="n">
-        <v>0.4059872461419739</v>
+        <v>0.3497164331364634</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.1586695413891271</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2187</v>
+        <v>1728</v>
       </c>
       <c r="B414" t="n">
-        <v>0.3281947767235848</v>
+        <v>0.4645334102883947</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.2579036431876009</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>2169</v>
+        <v>1723</v>
       </c>
       <c r="B415" t="n">
-        <v>0.3125926442012426</v>
+        <v>0.316741338877501</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.2251435760090947</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2168</v>
+        <v>1710</v>
       </c>
       <c r="B416" t="n">
-        <v>0.3297793249891826</v>
+        <v>0.3563440052921536</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.3379290630867734</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2167</v>
+        <v>1702</v>
       </c>
       <c r="B417" t="n">
-        <v>0.3378559856605562</v>
+        <v>0.3483693109298438</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.3415008544543447</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>2161</v>
+        <v>1695</v>
       </c>
       <c r="B418" t="n">
-        <v>0.393167793875025</v>
+        <v>0.3180767118477238</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.2945040213312977</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>2132</v>
+        <v>1682</v>
       </c>
       <c r="B419" t="n">
-        <v>0.2929398317787004</v>
+        <v>0.3336094645558838</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.09764511514453086</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2107</v>
+        <v>1642</v>
       </c>
       <c r="B420" t="n">
-        <v>0.3730902166307563</v>
+        <v>0.2756969873747365</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.2033206378064054</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>2104</v>
+        <v>1626</v>
       </c>
       <c r="B421" t="n">
-        <v>0.3035140948618497</v>
+        <v>0.3155625337308985</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.217396391570092</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>2103</v>
+        <v>1619</v>
       </c>
       <c r="B422" t="n">
-        <v>0.3470057905061719</v>
+        <v>0.3907340751074811</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.3166316512428439</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2098</v>
+        <v>1606</v>
       </c>
       <c r="B423" t="n">
-        <v>0.3049503831309541</v>
+        <v>0.3168810321224899</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.2125673209784921</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>2094</v>
+        <v>1599</v>
       </c>
       <c r="B424" t="n">
-        <v>0.3375661068282165</v>
+        <v>0.3684372631922981</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.22172488792129</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>2080</v>
+        <v>1595</v>
       </c>
       <c r="B425" t="n">
-        <v>0.2860019669927917</v>
+        <v>0.7307424886812197</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.5217813643614433</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>2076</v>
+        <v>1589</v>
       </c>
       <c r="B426" t="n">
-        <v>0.3776241140577731</v>
+        <v>0.347799940743505</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.1690709430515626</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>2070</v>
+        <v>1588</v>
       </c>
       <c r="B427" t="n">
-        <v>0.2748315313762827</v>
+        <v>0.3364652280810657</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.2823672525977935</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>2053</v>
+        <v>1573</v>
       </c>
       <c r="B428" t="n">
-        <v>0.2467376934401175</v>
+        <v>0.3770508043395251</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.3273396709424177</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2052</v>
+        <v>1572</v>
       </c>
       <c r="B429" t="n">
-        <v>0.592904161355573</v>
+        <v>0.7157705461466259</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.2974942743673493</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>2051</v>
+        <v>1571</v>
       </c>
       <c r="B430" t="n">
-        <v>0.2474688875252096</v>
+        <v>0.3450537744699416</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.2625179495585349</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>2050</v>
+        <v>1570</v>
       </c>
       <c r="B431" t="n">
-        <v>0.3631247155479007</v>
+        <v>0.3323772262915163</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.2113626694777893</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>2049</v>
+        <v>1559</v>
       </c>
       <c r="B432" t="n">
-        <v>0.3740132103301136</v>
+        <v>0.607446601504244</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.2408306581228367</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>2048</v>
+        <v>1556</v>
       </c>
       <c r="B433" t="n">
-        <v>0.2811917456910838</v>
+        <v>0.5627270661541992</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.3158681641798934</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>2047</v>
+        <v>1554</v>
       </c>
       <c r="B434" t="n">
-        <v>0.272347302832592</v>
+        <v>0.3581431919222064</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.3195503579485549</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>2008</v>
+        <v>1553</v>
       </c>
       <c r="B435" t="n">
-        <v>0.2919826923738904</v>
+        <v>0.317679135796635</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.1884463190381385</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>1961</v>
+        <v>1552</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3486455184215853</v>
+        <v>0.355658480321405</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.2021737030724957</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>1927</v>
+        <v>1507</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3315876584516114</v>
+        <v>0.355385094481537</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.2677994334445364</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>1918</v>
+        <v>1496</v>
       </c>
       <c r="B438" t="n">
-        <v>0.2861599675208834</v>
+        <v>0.332106407493312</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.218617742382347</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>1915</v>
+        <v>1464</v>
       </c>
       <c r="B439" t="n">
-        <v>0.379851633803901</v>
+        <v>0.349832479152653</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.2205675199565959</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>1912</v>
+        <v>1458</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3320801218112044</v>
+        <v>0.2985003391676224</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.2724977052593517</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>1904</v>
+        <v>1450</v>
       </c>
       <c r="B441" t="n">
-        <v>0.3120544376003372</v>
+        <v>0.6095391375324091</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.477859773730887</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>1897</v>
+        <v>1449</v>
       </c>
       <c r="B442" t="n">
-        <v>0.2703920933448163</v>
+        <v>0.2879766308046283</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.229790128657113</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>1893</v>
+        <v>1448</v>
       </c>
       <c r="B443" t="n">
-        <v>0.3312326563420664</v>
+        <v>0.3673752938783229</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.1713564412500654</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>1891</v>
+        <v>1443</v>
       </c>
       <c r="B444" t="n">
-        <v>0.2851134292200243</v>
+        <v>0.3542062619985969</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.3254517869694464</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>1888</v>
+        <v>1439</v>
       </c>
       <c r="B445" t="n">
-        <v>0.2926205475525266</v>
+        <v>0.4237024309794385</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.215402568645295</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>1843</v>
+        <v>1417</v>
       </c>
       <c r="B446" t="n">
-        <v>0.2610939870199543</v>
+        <v>0.4009031958397615</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.3372956194630661</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>1832</v>
+        <v>1416</v>
       </c>
       <c r="B447" t="n">
-        <v>0.5205488145833883</v>
+        <v>0.3150824496135252</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.1571146327351812</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>1831</v>
+        <v>1409</v>
       </c>
       <c r="B448" t="n">
-        <v>0.2830969439833813</v>
+        <v>0.4974303838237154</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.226618422528822</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>1830</v>
+        <v>1407</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2548794137884181</v>
+        <v>0.3104152483321658</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.2397136489102609</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>1825</v>
+        <v>1404</v>
       </c>
       <c r="B450" t="n">
-        <v>0.462235109606948</v>
+        <v>0.3891682055855588</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.2818081551189288</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>1769</v>
+        <v>1403</v>
       </c>
       <c r="B451" t="n">
-        <v>0.3140872903428545</v>
+        <v>0.476701744864539</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.28630092728074</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>1745</v>
+        <v>1402</v>
       </c>
       <c r="B452" t="n">
-        <v>0.6794023065977906</v>
+        <v>0.3441024845315201</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.3128047978585516</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>1743</v>
+        <v>1400</v>
       </c>
       <c r="B453" t="n">
-        <v>0.3584568380695285</v>
+        <v>0.3271632847639442</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.2343500914314174</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>1733</v>
+        <v>1396</v>
       </c>
       <c r="B454" t="n">
-        <v>0.3862702726408002</v>
+        <v>0.3267963551127212</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.111393990834734</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="B455" t="n">
-        <v>0.3497114657480477</v>
+        <v>0.4008676920383847</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.2720863807672451</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>1728</v>
+        <v>1393</v>
       </c>
       <c r="B456" t="n">
-        <v>0.286892930416602</v>
+        <v>0.3111574075607467</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.31917962932039</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>1723</v>
+        <v>1392</v>
       </c>
       <c r="B457" t="n">
-        <v>0.316741338877501</v>
+        <v>0.3013394849106494</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.1971430709299269</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>1710</v>
+        <v>1391</v>
       </c>
       <c r="B458" t="n">
-        <v>0.3563440052921536</v>
+        <v>0.2785166750526554</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.2934638861051196</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>1702</v>
+        <v>1385</v>
       </c>
       <c r="B459" t="n">
-        <v>0.3483693824897889</v>
+        <v>0.3482817349112995</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.2016072993536205</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>1695</v>
+        <v>1384</v>
       </c>
       <c r="B460" t="n">
-        <v>0.3180767118477238</v>
+        <v>0.3688085213604162</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.231558403289818</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>1682</v>
+        <v>1383</v>
       </c>
       <c r="B461" t="n">
-        <v>0.333615962086919</v>
+        <v>0.2888661304636348</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.2033066305324179</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>1642</v>
+        <v>1382</v>
       </c>
       <c r="B462" t="n">
-        <v>0.2751056079149453</v>
+        <v>0.3334332114380993</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.335190506539814</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>1626</v>
+        <v>1381</v>
       </c>
       <c r="B463" t="n">
-        <v>0.3155625337308985</v>
+        <v>0.3318858090624597</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.3346210273709101</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>1619</v>
+        <v>1379</v>
       </c>
       <c r="B464" t="n">
-        <v>0.3907340751074811</v>
+        <v>0.2939382833739862</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.2879460696170776</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>1613</v>
+        <v>1378</v>
       </c>
       <c r="B465" t="n">
-        <v>6.4663853201051e-05</v>
+        <v>0.4565069862515826</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.2915389934121667</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>1606</v>
+        <v>1374</v>
       </c>
       <c r="B466" t="n">
-        <v>0.3168729807133107</v>
+        <v>0.3061571205929348</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.267012076653235</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>1599</v>
+        <v>1372</v>
       </c>
       <c r="B467" t="n">
-        <v>0.3684194878205761</v>
+        <v>0.3818836572688012</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.4051067000828631</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>1589</v>
+        <v>1364</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3472350457886391</v>
+        <v>0.316365910402554</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.2553704327683031</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>1588</v>
+        <v>1363</v>
       </c>
       <c r="B469" t="n">
-        <v>0.3364837076955889</v>
+        <v>0.3289557735022893</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.2577430745859517</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>1573</v>
+        <v>1361</v>
       </c>
       <c r="B470" t="n">
-        <v>0.3770502383728208</v>
+        <v>0.2768631979091383</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.1588625945230724</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>1572</v>
+        <v>1360</v>
       </c>
       <c r="B471" t="n">
-        <v>0.7157705461466259</v>
+        <v>0.2028391810437631</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.08314320588178525</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>1571</v>
+        <v>1357</v>
       </c>
       <c r="B472" t="n">
-        <v>0.3450109619041601</v>
+        <v>0.2948660735843591</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.2338674676598529</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>1570</v>
+        <v>1356</v>
       </c>
       <c r="B473" t="n">
-        <v>0.3323939873269362</v>
+        <v>0.3014999606503526</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.1147212570438685</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>1564</v>
+        <v>1355</v>
       </c>
       <c r="B474" t="n">
-        <v>0.2791460518983757</v>
+        <v>0.3340207978804869</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.3011553746751151</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>1559</v>
+        <v>1353</v>
       </c>
       <c r="B475" t="n">
-        <v>0.2571602130160212</v>
+        <v>0.3836381504007566</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.2423060535578333</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>1557</v>
+        <v>1336</v>
       </c>
       <c r="B476" t="n">
-        <v>0.2251671141569587</v>
+        <v>0.5976623569356581</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.2944715213108931</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>1556</v>
+        <v>1295</v>
       </c>
       <c r="B477" t="n">
-        <v>0.5623128923516685</v>
+        <v>0.4171856751960844</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.2576753658544356</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>1555</v>
+        <v>1294</v>
       </c>
       <c r="B478" t="n">
-        <v>0.194114580397293</v>
+        <v>0.3552730386260217</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.2210226845763474</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>1554</v>
+        <v>1271</v>
       </c>
       <c r="B479" t="n">
-        <v>0.3581530464420379</v>
+        <v>0.293273998273467</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.1412317769013096</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>1553</v>
+        <v>1252</v>
       </c>
       <c r="B480" t="n">
-        <v>0.3175695363304489</v>
+        <v>0.3180447714101591</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.2544095302772082</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>1552</v>
+        <v>1250</v>
       </c>
       <c r="B481" t="n">
-        <v>0.3556479437987913</v>
+        <v>0.3347310962746191</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.2438812517195123</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>1507</v>
+        <v>1248</v>
       </c>
       <c r="B482" t="n">
-        <v>0.3557995843362555</v>
+        <v>0.3705141738645321</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.2893906130552872</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>1496</v>
+        <v>1243</v>
       </c>
       <c r="B483" t="n">
-        <v>0.3230444254170908</v>
+        <v>0.3344575827232326</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.1497936982805093</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>1464</v>
+        <v>1242</v>
       </c>
       <c r="B484" t="n">
-        <v>0.3497415591883968</v>
+        <v>0.3307803150504353</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.2738973599772614</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>1458</v>
+        <v>1241</v>
       </c>
       <c r="B485" t="n">
-        <v>0.2985003391676224</v>
+        <v>0.3166087723865537</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.2079241622731994</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>1449</v>
+        <v>1240</v>
       </c>
       <c r="B486" t="n">
-        <v>0.2879875371256953</v>
+        <v>0.3434297681252396</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.2740153885183146</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>1448</v>
+        <v>1239</v>
       </c>
       <c r="B487" t="n">
-        <v>0.2915172703756427</v>
+        <v>0.4395466625480956</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.4842925887498115</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>1443</v>
+        <v>1235</v>
       </c>
       <c r="B488" t="n">
-        <v>0.3542032903563701</v>
+        <v>0.3436149132236885</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.1916729428281982</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>1439</v>
+        <v>1233</v>
       </c>
       <c r="B489" t="n">
-        <v>0.4237477752412489</v>
+        <v>0.3477698311576135</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.2065443776992217</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>1417</v>
+        <v>1230</v>
       </c>
       <c r="B490" t="n">
-        <v>0.400903781069272</v>
+        <v>0.2964305796139985</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.1584834958450419</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>1416</v>
+        <v>1218</v>
       </c>
       <c r="B491" t="n">
-        <v>0.3150029170229462</v>
+        <v>0.2971801206982543</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.2806992522258402</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>1409</v>
+        <v>1217</v>
       </c>
       <c r="B492" t="n">
-        <v>0.4974303838237154</v>
+        <v>0.2702912227131679</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.1159802144038947</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>1407</v>
+        <v>1175</v>
       </c>
       <c r="B493" t="n">
-        <v>0.2667631313261073</v>
+        <v>0.6951892470897324</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.6811265741277872</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>1404</v>
+        <v>1167</v>
       </c>
       <c r="B494" t="n">
-        <v>0.374285531348093</v>
+        <v>0.297601876250966</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.279802072844973</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>1403</v>
+        <v>1131</v>
       </c>
       <c r="B495" t="n">
-        <v>0.3328130458403647</v>
+        <v>0.4351673239875359</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.1326251406963642</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>1402</v>
+        <v>1104</v>
       </c>
       <c r="B496" t="n">
-        <v>0.3441091391285702</v>
+        <v>0.324024189988453</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.1452759319981731</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>1400</v>
+        <v>1091</v>
       </c>
       <c r="B497" t="n">
-        <v>0.3271749960671153</v>
+        <v>0.3435572782895177</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.2806823003254522</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>1396</v>
+        <v>1082</v>
       </c>
       <c r="B498" t="n">
-        <v>0.3267962871038215</v>
+        <v>0.3317693247192206</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.2913726328438566</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>1394</v>
+        <v>1081</v>
       </c>
       <c r="B499" t="n">
-        <v>0.400934353804546</v>
+        <v>0.406857551802523</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.2530474265950666</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>1393</v>
+        <v>1077</v>
       </c>
       <c r="B500" t="n">
-        <v>0.3111468513997284</v>
+        <v>0.5842650477781213</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.5207733416867638</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>1392</v>
+        <v>1073</v>
       </c>
       <c r="B501" t="n">
-        <v>0.3013274973236396</v>
+        <v>0.5132338216059574</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.3672004609774937</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>1391</v>
+        <v>1048</v>
       </c>
       <c r="B502" t="n">
-        <v>0.2785166750526554</v>
+        <v>0.3293219283197345</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.3417538948896101</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>1385</v>
+        <v>1047</v>
       </c>
       <c r="B503" t="n">
-        <v>0.3482806653768203</v>
+        <v>0.2821305574430701</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.1791097407278988</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>1384</v>
+        <v>1046</v>
       </c>
       <c r="B504" t="n">
-        <v>0.368808450422733</v>
+        <v>0.3507451340908238</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.2323790712437321</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>1383</v>
+        <v>1043</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2888599844124192</v>
+        <v>0.3316221466492723</v>
+      </c>
+      <c r="C505" t="n">
+        <v>0.1813910311593695</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>1382</v>
+        <v>1040</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3334321969911608</v>
+        <v>0.3105549132813676</v>
+      </c>
+      <c r="C506" t="n">
+        <v>0.3018525404286618</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>1381</v>
+        <v>1012</v>
       </c>
       <c r="B507" t="n">
-        <v>0.3318858090624597</v>
+        <v>0.4288187843115965</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.03865787137748999</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>1379</v>
+        <v>1010</v>
       </c>
       <c r="B508" t="n">
-        <v>0.2939382833739862</v>
+        <v>0.3997676258129286</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.3647629375775033</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>1378</v>
+        <v>1008</v>
       </c>
       <c r="B509" t="n">
-        <v>0.4565075975827206</v>
+        <v>0.3678104332570737</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.3634698488670159</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>1374</v>
+        <v>1007</v>
       </c>
       <c r="B510" t="n">
-        <v>0.3061562233836841</v>
+        <v>0.7459513844120584</v>
+      </c>
+      <c r="C510" t="n">
+        <v>0.13071345532453</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>1372</v>
+        <v>1001</v>
       </c>
       <c r="B511" t="n">
-        <v>0.381882367175098</v>
+        <v>0.3638135386699414</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.3505014814488329</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>1364</v>
+        <v>997</v>
       </c>
       <c r="B512" t="n">
-        <v>0.3163659801912345</v>
+        <v>0.4532910774589171</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.1508387630753811</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>1363</v>
+        <v>996</v>
       </c>
       <c r="B513" t="n">
-        <v>0.3224551649030841</v>
+        <v>0.3138645281522138</v>
+      </c>
+      <c r="C513" t="n">
+        <v>0.2833329230178566</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>1361</v>
+        <v>995</v>
       </c>
       <c r="B514" t="n">
-        <v>0.2768631979091383</v>
+        <v>0.3611315005965227</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.1311753091214956</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>1360</v>
+        <v>994</v>
       </c>
       <c r="B515" t="n">
-        <v>0.2028354245464641</v>
+        <v>0.3394056006096366</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.3325915658039396</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>1357</v>
+        <v>992</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2948691444423521</v>
+        <v>0.3561706370990795</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.201122239197355</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>1356</v>
+        <v>991</v>
       </c>
       <c r="B517" t="n">
-        <v>0.3014999606503526</v>
+        <v>0.3816099996291079</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.2857089185898347</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>1355</v>
+        <v>990</v>
       </c>
       <c r="B518" t="n">
-        <v>0.3340207978804869</v>
+        <v>0.3395182769252002</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.312001821584777</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>1353</v>
+        <v>988</v>
       </c>
       <c r="B519" t="n">
-        <v>0.3836381504007566</v>
+        <v>0.3731609576539316</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.3244853684276291</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>1336</v>
+        <v>983</v>
       </c>
       <c r="B520" t="n">
-        <v>0.3702188552815857</v>
+        <v>0.3727335326382321</v>
+      </c>
+      <c r="C520" t="n">
+        <v>0.3638069068313906</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>1305</v>
+        <v>981</v>
       </c>
       <c r="B521" t="n">
-        <v>0.274317609908298</v>
+        <v>0.4002855344911551</v>
+      </c>
+      <c r="C521" t="n">
+        <v>0.3154198775301075</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>1295</v>
+        <v>976</v>
       </c>
       <c r="B522" t="n">
-        <v>0.3165277824375483</v>
+        <v>0.3039505419530751</v>
+      </c>
+      <c r="C522" t="n">
+        <v>0.06433894091761802</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>1294</v>
+        <v>964</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3552959392283926</v>
+        <v>0.5671096489498864</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.2558836797408201</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>1271</v>
+        <v>963</v>
       </c>
       <c r="B524" t="n">
-        <v>0.2933170162848256</v>
+        <v>0.3628744765895175</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.4561174780421587</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>1252</v>
+        <v>898</v>
       </c>
       <c r="B525" t="n">
-        <v>0.2914818382892799</v>
+        <v>0.375315156452</v>
+      </c>
+      <c r="C525" t="n">
+        <v>0.3786283860176146</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>1250</v>
+        <v>897</v>
       </c>
       <c r="B526" t="n">
-        <v>0.3347322065163783</v>
+        <v>0.3718010282644753</v>
+      </c>
+      <c r="C526" t="n">
+        <v>0.1058555506767357</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>1248</v>
+        <v>892</v>
       </c>
       <c r="B527" t="n">
-        <v>0.3704687178452252</v>
+        <v>0.3771235293783841</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.2336416883924183</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>1243</v>
+        <v>891</v>
       </c>
       <c r="B528" t="n">
-        <v>0.3344870137590736</v>
+        <v>0.3370397503915531</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.1881691442644921</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>1242</v>
+        <v>889</v>
       </c>
       <c r="B529" t="n">
-        <v>0.3306647561094843</v>
+        <v>0.3546195381711122</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.1996032657950422</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>1241</v>
+        <v>887</v>
       </c>
       <c r="B530" t="n">
-        <v>0.3166111047245463</v>
+        <v>0.3274811334384239</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.3238447826615554</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>1240</v>
+        <v>886</v>
       </c>
       <c r="B531" t="n">
-        <v>0.3434028892434619</v>
+        <v>0.3260727997501766</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.2860956575667704</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>1239</v>
+        <v>884</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3099639613061007</v>
+        <v>0.3266639942460852</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.2871135598227101</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>1235</v>
+        <v>883</v>
       </c>
       <c r="B533" t="n">
-        <v>0.343625042892011</v>
+        <v>0.3392349434096306</v>
+      </c>
+      <c r="C533" t="n">
+        <v>0.2777556911809559</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>1233</v>
+        <v>879</v>
       </c>
       <c r="B534" t="n">
-        <v>0.3477731907858691</v>
+        <v>0.3506741251610866</v>
+      </c>
+      <c r="C534" t="n">
+        <v>0.2210861351144202</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>1230</v>
+        <v>876</v>
       </c>
       <c r="B535" t="n">
-        <v>0.2964427381490364</v>
+        <v>0.3523412781689419</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.1659067351164933</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>1218</v>
+        <v>874</v>
       </c>
       <c r="B536" t="n">
-        <v>0.2971769977483011</v>
+        <v>0.349515183159402</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.2322364385735165</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>1217</v>
+        <v>867</v>
       </c>
       <c r="B537" t="n">
-        <v>0.2703100288580808</v>
+        <v>0.3352528526399275</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.2738684428663409</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>1167</v>
+        <v>864</v>
       </c>
       <c r="B538" t="n">
-        <v>0.297601876250966</v>
+        <v>0.2550190205376575</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.1890043634381554</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>1131</v>
+        <v>863</v>
       </c>
       <c r="B539" t="n">
-        <v>0.4351144195853787</v>
+        <v>0.3274391736763721</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.1340712335235684</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>1104</v>
+        <v>862</v>
       </c>
       <c r="B540" t="n">
-        <v>0.3240260232472691</v>
+        <v>0.7887979139410743</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.1919423409019002</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>1091</v>
+        <v>861</v>
       </c>
       <c r="B541" t="n">
-        <v>0.3435584637313803</v>
+        <v>0.3554538899797812</v>
+      </c>
+      <c r="C541" t="n">
+        <v>0.2682482922112879</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>1082</v>
+        <v>856</v>
       </c>
       <c r="B542" t="n">
-        <v>0.3317693247192206</v>
+        <v>0.3454536628846739</v>
+      </c>
+      <c r="C542" t="n">
+        <v>0.3998103037255992</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>1081</v>
+        <v>762</v>
       </c>
       <c r="B543" t="n">
-        <v>0.2894344894285878</v>
+        <v>0.4236131792462088</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.1694318563686804</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>1048</v>
+        <v>734</v>
       </c>
       <c r="B544" t="n">
-        <v>0.3293218212963777</v>
+        <v>0.3180224404957423</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.2475306410036386</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>1047</v>
+        <v>733</v>
       </c>
       <c r="B545" t="n">
-        <v>0.2821307810440587</v>
+        <v>0.408608398083067</v>
+      </c>
+      <c r="C545" t="n">
+        <v>0.3230205361289513</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>1046</v>
+        <v>728</v>
       </c>
       <c r="B546" t="n">
-        <v>0.3507451340908238</v>
+        <v>0.3547987908813752</v>
+      </c>
+      <c r="C546" t="n">
+        <v>0.2956575538293803</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>1043</v>
+        <v>727</v>
       </c>
       <c r="B547" t="n">
-        <v>0.3316222660661791</v>
+        <v>0.3728995454933457</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.3397540002331119</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>1040</v>
+        <v>715</v>
       </c>
       <c r="B548" t="n">
-        <v>0.3105549132813667</v>
+        <v>0.3473883897899444</v>
+      </c>
+      <c r="C548" t="n">
+        <v>0.250075319909837</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>1012</v>
+        <v>710</v>
       </c>
       <c r="B549" t="n">
-        <v>0.42879618347856</v>
+        <v>0.4333618534463872</v>
+      </c>
+      <c r="C549" t="n">
+        <v>0.3157164841265965</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>1010</v>
+        <v>709</v>
       </c>
       <c r="B550" t="n">
-        <v>0.3755491852246495</v>
+        <v>0.3769064823862894</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.3748998127647796</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>1008</v>
+        <v>708</v>
       </c>
       <c r="B551" t="n">
-        <v>0.3678104332570737</v>
+        <v>0.3972573832360894</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.3064557204562215</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>1001</v>
+        <v>703</v>
       </c>
       <c r="B552" t="n">
-        <v>0.3638169970836584</v>
+        <v>0.3734417510880801</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.371471372644923</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>997</v>
+        <v>700</v>
       </c>
       <c r="B553" t="n">
-        <v>0.4532944113446369</v>
+        <v>0.2897775417960908</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.2006104289410127</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>996</v>
+        <v>699</v>
       </c>
       <c r="B554" t="n">
-        <v>0.3138645281522138</v>
+        <v>0.3366983769928182</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.2661273622367698</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>995</v>
+        <v>693</v>
       </c>
       <c r="B555" t="n">
-        <v>0.3611316150063419</v>
+        <v>0.2842307249162243</v>
+      </c>
+      <c r="C555" t="n">
+        <v>0.2521081754092573</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>994</v>
+        <v>689</v>
       </c>
       <c r="B556" t="n">
-        <v>0.3394056006096366</v>
+        <v>0.3340041742082233</v>
+      </c>
+      <c r="C556" t="n">
+        <v>0.3024037290511059</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>991</v>
+        <v>688</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3816099996291079</v>
+        <v>0.3482901093961375</v>
+      </c>
+      <c r="C557" t="n">
+        <v>0.1407093806414016</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>990</v>
+        <v>683</v>
       </c>
       <c r="B558" t="n">
-        <v>0.3395182769252002</v>
+        <v>0.2774921187318851</v>
+      </c>
+      <c r="C558" t="n">
+        <v>0.2513645514901514</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>988</v>
+        <v>676</v>
       </c>
       <c r="B559" t="n">
-        <v>0.3731609576539316</v>
+        <v>0.3662491461035073</v>
+      </c>
+      <c r="C559" t="n">
+        <v>0.2921445209752935</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>983</v>
+        <v>668</v>
       </c>
       <c r="B560" t="n">
-        <v>0.3727335326382321</v>
+        <v>0.3434529288269476</v>
+      </c>
+      <c r="C560" t="n">
+        <v>0.2612192867023966</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>981</v>
+        <v>667</v>
       </c>
       <c r="B561" t="n">
-        <v>0.3621992491330123</v>
+        <v>0.5566761760529153</v>
+      </c>
+      <c r="C561" t="n">
+        <v>0.262091980564657</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>976</v>
+        <v>664</v>
       </c>
       <c r="B562" t="n">
-        <v>0.3039517441859229</v>
+        <v>0.278814098600116</v>
+      </c>
+      <c r="C562" t="n">
+        <v>0.21773913630652</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>964</v>
+        <v>663</v>
       </c>
       <c r="B563" t="n">
-        <v>0.5670759745622594</v>
+        <v>0.3297048069949977</v>
+      </c>
+      <c r="C563" t="n">
+        <v>0.2933140975761188</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>963</v>
+        <v>647</v>
       </c>
       <c r="B564" t="n">
-        <v>0.3628744765895175</v>
+        <v>0.6901405203994342</v>
+      </c>
+      <c r="C564" t="n">
+        <v>0.3348174600805405</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>898</v>
+        <v>646</v>
       </c>
       <c r="B565" t="n">
-        <v>0.3753156758452665</v>
+        <v>0.3142937474432712</v>
+      </c>
+      <c r="C565" t="n">
+        <v>0.2580872285344431</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>897</v>
+        <v>645</v>
       </c>
       <c r="B566" t="n">
-        <v>0.3718009308197885</v>
+        <v>0.35283937846475</v>
+      </c>
+      <c r="C566" t="n">
+        <v>0.3004256483564779</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>892</v>
+        <v>643</v>
       </c>
       <c r="B567" t="n">
-        <v>0.3771124296524024</v>
+        <v>0.3495201244555666</v>
+      </c>
+      <c r="C567" t="n">
+        <v>0.518965124431379</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>891</v>
+        <v>642</v>
       </c>
       <c r="B568" t="n">
-        <v>0.3370397296405065</v>
+        <v>0.2692638102499323</v>
+      </c>
+      <c r="C568" t="n">
+        <v>0.09831267413433531</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>889</v>
+        <v>641</v>
       </c>
       <c r="B569" t="n">
-        <v>0.3546203428424618</v>
+        <v>0.3290988886066965</v>
+      </c>
+      <c r="C569" t="n">
+        <v>0.2710806841818396</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>887</v>
+        <v>638</v>
       </c>
       <c r="B570" t="n">
-        <v>0.3274811334384239</v>
+        <v>0.3969430652374398</v>
+      </c>
+      <c r="C570" t="n">
+        <v>0.2394441877892383</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>886</v>
+        <v>634</v>
       </c>
       <c r="B571" t="n">
-        <v>0.3260644062914342</v>
+        <v>0.3735619429986667</v>
+      </c>
+      <c r="C571" t="n">
+        <v>0.2715433085198162</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>884</v>
+        <v>620</v>
       </c>
       <c r="B572" t="n">
-        <v>0.3266639942460852</v>
+        <v>0.3479840222672885</v>
+      </c>
+      <c r="C572" t="n">
+        <v>0.2633293016107047</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>883</v>
+        <v>619</v>
       </c>
       <c r="B573" t="n">
-        <v>0.3392264876525924</v>
+        <v>0.374820953694317</v>
+      </c>
+      <c r="C573" t="n">
+        <v>0.2634042774875879</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>879</v>
+        <v>617</v>
       </c>
       <c r="B574" t="n">
-        <v>0.3506726307825853</v>
+        <v>0.3638887596069222</v>
+      </c>
+      <c r="C574" t="n">
+        <v>0.2765037848638047</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>876</v>
+        <v>612</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3523387508234866</v>
+        <v>0.3753277019275887</v>
+      </c>
+      <c r="C575" t="n">
+        <v>0.3217709841643671</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>874</v>
+        <v>610</v>
       </c>
       <c r="B576" t="n">
-        <v>0.3354647283570587</v>
+        <v>0.3301525640551252</v>
+      </c>
+      <c r="C576" t="n">
+        <v>0.2614193329950218</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>867</v>
+        <v>609</v>
       </c>
       <c r="B577" t="n">
-        <v>0.3352517438153209</v>
+        <v>0.3752795339983297</v>
+      </c>
+      <c r="C577" t="n">
+        <v>0.2537837535149192</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>864</v>
+        <v>603</v>
       </c>
       <c r="B578" t="n">
-        <v>0.2549812029538107</v>
+        <v>0.2742825032729599</v>
+      </c>
+      <c r="C578" t="n">
+        <v>0.2339379549380063</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>863</v>
+        <v>602</v>
       </c>
       <c r="B579" t="n">
-        <v>0.3274536192220266</v>
+        <v>0.3378085666742011</v>
+      </c>
+      <c r="C579" t="n">
+        <v>0.2091049574752915</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>862</v>
+        <v>599</v>
       </c>
       <c r="B580" t="n">
-        <v>0.2540474622049143</v>
+        <v>0.3074298044190681</v>
+      </c>
+      <c r="C580" t="n">
+        <v>0.1933632156205842</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>861</v>
+        <v>597</v>
       </c>
       <c r="B581" t="n">
-        <v>0.3554515130749152</v>
+        <v>0.2236710369487485</v>
+      </c>
+      <c r="C581" t="n">
+        <v>0.04329949238578686</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>856</v>
+        <v>594</v>
       </c>
       <c r="B582" t="n">
-        <v>0.3454536628846739</v>
+        <v>0.3246040837933417</v>
+      </c>
+      <c r="C582" t="n">
+        <v>0.2658319288970862</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>762</v>
+        <v>593</v>
       </c>
       <c r="B583" t="n">
-        <v>0.4237668084673631</v>
+        <v>0.3270530365107339</v>
+      </c>
+      <c r="C583" t="n">
+        <v>0.2557804546670979</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>734</v>
+        <v>591</v>
       </c>
       <c r="B584" t="n">
-        <v>0.3009984773818257</v>
+        <v>0.2163962884089474</v>
+      </c>
+      <c r="C584" t="n">
+        <v>0.2087701416754439</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="B585" t="n">
-        <v>0.408618078074634</v>
+        <v>0.2882770839087254</v>
+      </c>
+      <c r="C585" t="n">
+        <v>0.1429528367577171</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>728</v>
+        <v>568</v>
       </c>
       <c r="B586" t="n">
-        <v>0.3547992194382703</v>
+        <v>0.3400091555800325</v>
+      </c>
+      <c r="C586" t="n">
+        <v>0.2482407120494846</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>727</v>
+        <v>564</v>
       </c>
       <c r="B587" t="n">
-        <v>0.3728748101011584</v>
+        <v>0.367614543634395</v>
+      </c>
+      <c r="C587" t="n">
+        <v>0.07085405945875339</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>715</v>
+        <v>563</v>
       </c>
       <c r="B588" t="n">
-        <v>0.2801216240824326</v>
+        <v>0.2457444957111541</v>
+      </c>
+      <c r="C588" t="n">
+        <v>0.2421364357479821</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>710</v>
+        <v>562</v>
       </c>
       <c r="B589" t="n">
-        <v>0.4333626779826749</v>
+        <v>0.3058406869398531</v>
+      </c>
+      <c r="C589" t="n">
+        <v>0.2633850027932861</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>709</v>
+        <v>548</v>
       </c>
       <c r="B590" t="n">
-        <v>0.3769064823862894</v>
+        <v>0.3346204211688161</v>
+      </c>
+      <c r="C590" t="n">
+        <v>0.1608735193791111</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>708</v>
+        <v>546</v>
       </c>
       <c r="B591" t="n">
-        <v>0.3972573832360894</v>
+        <v>0.2797079756834658</v>
+      </c>
+      <c r="C591" t="n">
+        <v>0.2659776630507604</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>703</v>
+        <v>544</v>
       </c>
       <c r="B592" t="n">
-        <v>0.3734417510880801</v>
+        <v>0.3205535878742518</v>
+      </c>
+      <c r="C592" t="n">
+        <v>0.2860739458266756</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>700</v>
+        <v>527</v>
       </c>
       <c r="B593" t="n">
-        <v>0.2748592804817647</v>
+        <v>0.3094550972775867</v>
+      </c>
+      <c r="C593" t="n">
+        <v>0.09165381417215467</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>699</v>
+        <v>525</v>
       </c>
       <c r="B594" t="n">
-        <v>0.3367489952715378</v>
+        <v>0.3160586897530785</v>
+      </c>
+      <c r="C594" t="n">
+        <v>0.2561794021383899</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>693</v>
+        <v>492</v>
       </c>
       <c r="B595" t="n">
-        <v>0.2839280973778358</v>
+        <v>0.3239386131508399</v>
+      </c>
+      <c r="C595" t="n">
+        <v>0.2817352531735944</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>689</v>
+        <v>478</v>
       </c>
       <c r="B596" t="n">
-        <v>0.3340282281957222</v>
+        <v>0.3338750867660801</v>
+      </c>
+      <c r="C596" t="n">
+        <v>0.1535369857016533</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>688</v>
+        <v>477</v>
       </c>
       <c r="B597" t="n">
-        <v>0.3482898438876432</v>
+        <v>0.4496039014544914</v>
+      </c>
+      <c r="C597" t="n">
+        <v>0.1564003138982875</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>683</v>
+        <v>470</v>
       </c>
       <c r="B598" t="n">
-        <v>0.2774921187318851</v>
+        <v>0.344845738450136</v>
+      </c>
+      <c r="C598" t="n">
+        <v>0.1974556199118797</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>676</v>
+        <v>469</v>
       </c>
       <c r="B599" t="n">
-        <v>0.3662464417967402</v>
+        <v>0.3501089625737424</v>
+      </c>
+      <c r="C599" t="n">
+        <v>0.3367279538582511</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>668</v>
+        <v>468</v>
       </c>
       <c r="B600" t="n">
-        <v>0.3433826506594884</v>
+        <v>0.3220755826937524</v>
+      </c>
+      <c r="C600" t="n">
+        <v>0.09280595220816054</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>667</v>
+        <v>465</v>
       </c>
       <c r="B601" t="n">
-        <v>0.348468354243879</v>
+        <v>0.2941242275704044</v>
+      </c>
+      <c r="C601" t="n">
+        <v>0.249327022260055</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>664</v>
+        <v>420</v>
       </c>
       <c r="B602" t="n">
-        <v>0.2793595041985356</v>
+        <v>0.3261728537022625</v>
+      </c>
+      <c r="C602" t="n">
+        <v>0.2583511339629855</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>663</v>
+        <v>408</v>
       </c>
       <c r="B603" t="n">
-        <v>0.3297021357243199</v>
+        <v>0.3375967137080857</v>
+      </c>
+      <c r="C603" t="n">
+        <v>0.2930436272559726</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>646</v>
+        <v>404</v>
       </c>
       <c r="B604" t="n">
-        <v>0.3142937474432712</v>
+        <v>0.3719981504756188</v>
+      </c>
+      <c r="C604" t="n">
+        <v>0.3179119906374666</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>645</v>
+        <v>400</v>
       </c>
       <c r="B605" t="n">
-        <v>0.35283937846475</v>
+        <v>0.3560355057340527</v>
+      </c>
+      <c r="C605" t="n">
+        <v>0.3102206814239126</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>643</v>
+        <v>384</v>
       </c>
       <c r="B606" t="n">
-        <v>0.3495201244555666</v>
+        <v>0.3296995170556269</v>
+      </c>
+      <c r="C606" t="n">
+        <v>0.3245792111759557</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>642</v>
+        <v>358</v>
       </c>
       <c r="B607" t="n">
-        <v>0.2692630501060476</v>
+        <v>0.3207869761494627</v>
+      </c>
+      <c r="C607" t="n">
+        <v>0.2503375482436582</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>641</v>
+        <v>356</v>
       </c>
       <c r="B608" t="n">
-        <v>0.3290988886066965</v>
+        <v>0.3564954643416052</v>
+      </c>
+      <c r="C608" t="n">
+        <v>0.2856091831482801</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>638</v>
+        <v>350</v>
       </c>
       <c r="B609" t="n">
-        <v>0.3272870643449124</v>
+        <v>0.3586296773094314</v>
+      </c>
+      <c r="C609" t="n">
+        <v>0.2636157395674211</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>634</v>
+        <v>345</v>
       </c>
       <c r="B610" t="n">
-        <v>0.3735683215685434</v>
+        <v>0.3669500276018093</v>
+      </c>
+      <c r="C610" t="n">
+        <v>0.2885073421729489</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>620</v>
+        <v>335</v>
       </c>
       <c r="B611" t="n">
-        <v>0.3479235564830724</v>
+        <v>1.504920390316173</v>
+      </c>
+      <c r="C611" t="n">
+        <v>0.2957687707144155</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>619</v>
+        <v>334</v>
       </c>
       <c r="B612" t="n">
-        <v>0.3748189391744624</v>
+        <v>0.2723785604807518</v>
+      </c>
+      <c r="C612" t="n">
+        <v>0.2109229944888721</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>617</v>
+        <v>331</v>
       </c>
       <c r="B613" t="n">
-        <v>0.3638925542023704</v>
+        <v>0.3288220783081877</v>
+      </c>
+      <c r="C613" t="n">
+        <v>0.2495111552723315</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>612</v>
+        <v>330</v>
       </c>
       <c r="B614" t="n">
-        <v>0.3753327242310949</v>
+        <v>0.3468100087147192</v>
+      </c>
+      <c r="C614" t="n">
+        <v>0.2761480927671089</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>610</v>
+        <v>315</v>
       </c>
       <c r="B615" t="n">
-        <v>0.3301400047736561</v>
+        <v>0.3371098353612121</v>
+      </c>
+      <c r="C615" t="n">
+        <v>0.2736631966498612</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>609</v>
+        <v>310</v>
       </c>
       <c r="B616" t="n">
-        <v>0.3752179983684261</v>
+        <v>0.3443479624981385</v>
+      </c>
+      <c r="C616" t="n">
+        <v>0.2942772630095725</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>603</v>
+        <v>302</v>
       </c>
       <c r="B617" t="n">
-        <v>0.2734789075681291</v>
+        <v>0.3282509761870867</v>
+      </c>
+      <c r="C617" t="n">
+        <v>0.2459062388370574</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>602</v>
+        <v>298</v>
       </c>
       <c r="B618" t="n">
-        <v>0.3378088284731487</v>
+        <v>0.3592374379166328</v>
+      </c>
+      <c r="C618" t="n">
+        <v>0.2551948080670384</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>599</v>
+        <v>273</v>
       </c>
       <c r="B619" t="n">
-        <v>0.3074136819261361</v>
+        <v>0.3429249135446176</v>
+      </c>
+      <c r="C619" t="n">
+        <v>0.3098380230016269</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>597</v>
+        <v>271</v>
       </c>
       <c r="B620" t="n">
-        <v>0.2236710369487485</v>
+        <v>0.3551920606464223</v>
+      </c>
+      <c r="C620" t="n">
+        <v>0.2698365655963902</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>594</v>
+        <v>260</v>
       </c>
       <c r="B621" t="n">
-        <v>0.3246040837933417</v>
+        <v>0.3820001618612821</v>
+      </c>
+      <c r="C621" t="n">
+        <v>0.2821023630970819</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>593</v>
+        <v>259</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3270530365107339</v>
+        <v>0.3573398504541291</v>
+      </c>
+      <c r="C622" t="n">
+        <v>0.3058458175758091</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>592</v>
+        <v>247</v>
       </c>
       <c r="B623" t="n">
-        <v>0.2210301802206404</v>
+        <v>0.3388838355349675</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.2740522070472995</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>591</v>
+        <v>228</v>
       </c>
       <c r="B624" t="n">
-        <v>0.2163962884089474</v>
+        <v>0.3699411552684321</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.2987285176234001</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>589</v>
+        <v>207</v>
       </c>
       <c r="B625" t="n">
-        <v>0.2882732487728388</v>
+        <v>0.3510892900717861</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.2266005841053979</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>568</v>
+        <v>203</v>
       </c>
       <c r="B626" t="n">
-        <v>0.3399956034779956</v>
+        <v>0.3177274272054191</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.1790415418130859</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>564</v>
+        <v>202</v>
       </c>
       <c r="B627" t="n">
-        <v>0.367614543634395</v>
+        <v>0.3234340072605141</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.1535825146946685</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>563</v>
+        <v>201</v>
       </c>
       <c r="B628" t="n">
-        <v>0.2457444957111541</v>
+        <v>0.7467015098316039</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.102936751037781</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>562</v>
+        <v>173</v>
       </c>
       <c r="B629" t="n">
-        <v>0.3058571534658752</v>
+        <v>0.3491836527067177</v>
+      </c>
+      <c r="C629" t="n">
+        <v>0.2778682516098402</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>548</v>
+        <v>170</v>
       </c>
       <c r="B630" t="n">
-        <v>0.3346204211688161</v>
+        <v>0.3406738925833218</v>
+      </c>
+      <c r="C630" t="n">
+        <v>0.2465548030544918</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>546</v>
+        <v>169</v>
       </c>
       <c r="B631" t="n">
-        <v>0.2797034433298971</v>
+        <v>0.291865425623869</v>
+      </c>
+      <c r="C631" t="n">
+        <v>0.1497675328730896</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>544</v>
+        <v>168</v>
       </c>
       <c r="B632" t="n">
-        <v>0.3205078345479806</v>
+        <v>0.3051176825835981</v>
+      </c>
+      <c r="C632" t="n">
+        <v>0.1751224463080867</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>527</v>
+        <v>167</v>
       </c>
       <c r="B633" t="n">
-        <v>0.3094614670990143</v>
+        <v>0.2956030956496823</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.2373296676466962</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>525</v>
+        <v>165</v>
       </c>
       <c r="B634" t="n">
-        <v>0.3160579704665518</v>
+        <v>0.3058644731086605</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.1523279660077428</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>492</v>
+        <v>160</v>
       </c>
       <c r="B635" t="n">
-        <v>0.3239386131508399</v>
+        <v>0.3374432404247836</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.317259341640057</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>478</v>
+        <v>147</v>
       </c>
       <c r="B636" t="n">
-        <v>0.3338750867660801</v>
+        <v>0.2627571139457729</v>
+      </c>
+      <c r="C636" t="n">
+        <v>0.1298154042250854</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>477</v>
+        <v>141</v>
       </c>
       <c r="B637" t="n">
-        <v>0.4036672461958152</v>
+        <v>0.6902344868136591</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.34918898947763</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>470</v>
+        <v>136</v>
       </c>
       <c r="B638" t="n">
-        <v>0.3448457742430415</v>
+        <v>0.3309073455951156</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.1414784672672634</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>469</v>
+        <v>130</v>
       </c>
       <c r="B639" t="n">
-        <v>0.3501089625737424</v>
+        <v>0.3679759085660065</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.3662075534084599</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>468</v>
+        <v>127</v>
       </c>
       <c r="B640" t="n">
-        <v>0.3220755826937524</v>
+        <v>0.341605643777881</v>
+      </c>
+      <c r="C640" t="n">
+        <v>0.1118244853476564</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>465</v>
+        <v>126</v>
       </c>
       <c r="B641" t="n">
-        <v>0.2941363068355377</v>
+        <v>0.3429542470403627</v>
+      </c>
+      <c r="C641" t="n">
+        <v>0.2814216939903629</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>420</v>
+        <v>120</v>
       </c>
       <c r="B642" t="n">
-        <v>0.326229288994746</v>
+        <v>0.3924514559498647</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.2970472588585588</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>408</v>
+        <v>118</v>
       </c>
       <c r="B643" t="n">
-        <v>0.3380859945699169</v>
+        <v>0.3217637337071853</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.2712156516333999</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>404</v>
+        <v>113</v>
       </c>
       <c r="B644" t="n">
-        <v>0.3719906888408886</v>
+        <v>0.3168804424623285</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.3110985903145382</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="B645" t="n">
-        <v>0.3560434098940181</v>
+        <v>0.3458315523041119</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.1541210243714671</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>384</v>
+        <v>87</v>
       </c>
       <c r="B646" t="n">
-        <v>0.3296980255058183</v>
+        <v>0.3329756732662649</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.3680958523559216</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="B647" t="n">
-        <v>0.3207828989695762</v>
+        <v>0.2852452087803967</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.2862485425459035</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>356</v>
+        <v>59</v>
       </c>
       <c r="B648" t="n">
-        <v>0.3564961316146027</v>
+        <v>0.2994656764620492</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.2649054582577681</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>350</v>
+        <v>56</v>
       </c>
       <c r="B649" t="n">
-        <v>0.3587627309447645</v>
+        <v>0.3259917850884508</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.2745498751252152</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>345</v>
+        <v>54</v>
       </c>
       <c r="B650" t="n">
-        <v>0.3669599857847746</v>
+        <v>0.295683028328146</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.1830558379743215</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>335</v>
+        <v>51</v>
       </c>
       <c r="B651" t="n">
-        <v>0.4460611894190973</v>
+        <v>0.359691426951484</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.1202051195872686</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>334</v>
+        <v>50</v>
       </c>
       <c r="B652" t="n">
-        <v>0.2700366767999636</v>
+        <v>0.3157931045706084</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.2521776479531563</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>331</v>
+        <v>47</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3288475226885168</v>
+        <v>0.3335763535015447</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.3310158471618329</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="B654" t="n">
-        <v>0.3468087716446954</v>
+        <v>0.3419911602059528</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.3407514490334598</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>315</v>
+        <v>10</v>
       </c>
       <c r="B655" t="n">
-        <v>0.3371098353612121</v>
+        <v>0.3642958084307301</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.3054461715865802</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>310</v>
+        <v>8</v>
       </c>
       <c r="B656" t="n">
-        <v>0.3443506129854662</v>
+        <v>0.3405112043959422</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.2802014857777129</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>302</v>
+        <v>7</v>
       </c>
       <c r="B657" t="n">
-        <v>0.3282509761870867</v>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="n">
-        <v>298</v>
-      </c>
-      <c r="B658" t="n">
-        <v>0.359241989441107</v>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="n">
-        <v>273</v>
-      </c>
-      <c r="B659" t="n">
-        <v>0.3429203068146707</v>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="n">
-        <v>271</v>
-      </c>
-      <c r="B660" t="n">
-        <v>0.3551923347172306</v>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="n">
-        <v>260</v>
-      </c>
-      <c r="B661" t="n">
-        <v>0.3820020905099827</v>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="n">
-        <v>259</v>
-      </c>
-      <c r="B662" t="n">
-        <v>0.3573478912437072</v>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="n">
-        <v>247</v>
-      </c>
-      <c r="B663" t="n">
-        <v>0.3389103298649656</v>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="n">
-        <v>228</v>
-      </c>
-      <c r="B664" t="n">
-        <v>0.3586096136440164</v>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="n">
-        <v>207</v>
-      </c>
-      <c r="B665" t="n">
-        <v>0.3510919227983499</v>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="n">
-        <v>173</v>
-      </c>
-      <c r="B666" t="n">
-        <v>0.3492032408859231</v>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="n">
-        <v>170</v>
-      </c>
-      <c r="B667" t="n">
-        <v>0.3406965048303927</v>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="n">
-        <v>169</v>
-      </c>
-      <c r="B668" t="n">
-        <v>0.291826097627916</v>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="n">
-        <v>168</v>
-      </c>
-      <c r="B669" t="n">
-        <v>0.3051459181308694</v>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="n">
-        <v>167</v>
-      </c>
-      <c r="B670" t="n">
-        <v>0.2956412789628411</v>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="n">
-        <v>165</v>
-      </c>
-      <c r="B671" t="n">
-        <v>0.3058589146539527</v>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="n">
-        <v>160</v>
-      </c>
-      <c r="B672" t="n">
-        <v>0.3374432404247836</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="n">
-        <v>147</v>
-      </c>
-      <c r="B673" t="n">
-        <v>0.1873874999326001</v>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="n">
-        <v>141</v>
-      </c>
-      <c r="B674" t="n">
-        <v>0.6901098848852418</v>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="n">
-        <v>136</v>
-      </c>
-      <c r="B675" t="n">
-        <v>0.3309073455951156</v>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="n">
-        <v>130</v>
-      </c>
-      <c r="B676" t="n">
-        <v>0.3679759085660065</v>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="n">
-        <v>127</v>
-      </c>
-      <c r="B677" t="n">
-        <v>0.3416342428609817</v>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="n">
-        <v>126</v>
-      </c>
-      <c r="B678" t="n">
-        <v>0.3429462741411794</v>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="n">
-        <v>120</v>
-      </c>
-      <c r="B679" t="n">
-        <v>0.3428118866147841</v>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="n">
-        <v>118</v>
-      </c>
-      <c r="B680" t="n">
-        <v>0.3212869653925908</v>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="n">
-        <v>113</v>
-      </c>
-      <c r="B681" t="n">
-        <v>0.3168804424623285</v>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="n">
-        <v>108</v>
-      </c>
-      <c r="B682" t="n">
-        <v>0.3458310088356271</v>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="n">
-        <v>87</v>
-      </c>
-      <c r="B683" t="n">
-        <v>0.3329674085335721</v>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="n">
-        <v>60</v>
-      </c>
-      <c r="B684" t="n">
-        <v>0.2852450574730446</v>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="n">
-        <v>59</v>
-      </c>
-      <c r="B685" t="n">
-        <v>0.2994580197260389</v>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="n">
-        <v>56</v>
-      </c>
-      <c r="B686" t="n">
-        <v>0.3259917850884508</v>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="n">
-        <v>54</v>
-      </c>
-      <c r="B687" t="n">
-        <v>0.2956626526277987</v>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="n">
-        <v>51</v>
-      </c>
-      <c r="B688" t="n">
-        <v>0.3597041351237842</v>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="n">
-        <v>50</v>
-      </c>
-      <c r="B689" t="n">
-        <v>0.3157804739790586</v>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="n">
-        <v>47</v>
-      </c>
-      <c r="B690" t="n">
-        <v>0.3335742344087223</v>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="n">
-        <v>26</v>
-      </c>
-      <c r="B691" t="n">
-        <v>0.3419911602059528</v>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="n">
-        <v>10</v>
-      </c>
-      <c r="B692" t="n">
-        <v>0.3642854311506335</v>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="n">
-        <v>8</v>
-      </c>
-      <c r="B693" t="n">
-        <v>0.3405112043959422</v>
+        <v>0.7217870036174429</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.4838499204154362</v>
       </c>
     </row>
   </sheetData>
